--- a/Fire work/Company/Fire Infra/Billing file infra.xlsx
+++ b/Fire work/Company/Fire Infra/Billing file infra.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800"/>
+    <workbookView windowWidth="19635" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Billing Log" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="148">
   <si>
     <t>Sno</t>
   </si>
@@ -532,17 +532,54 @@
   <si>
     <t>Medihope</t>
   </si>
+  <si>
+    <t>Kohinoor garden</t>
+  </si>
+  <si>
+    <t>suntech</t>
+  </si>
+  <si>
+    <t>150 mm pipe  wrapping coating included</t>
+  </si>
+  <si>
+    <t>21 mtr</t>
+  </si>
+  <si>
+    <t>80 mm pipe wrapping coating included</t>
+  </si>
+  <si>
+    <t>9.6 mtr</t>
+  </si>
+  <si>
+    <t>Rai galaxy site</t>
+  </si>
+  <si>
+    <t>33 mtr</t>
+  </si>
+  <si>
+    <t>15.4 mtr</t>
+  </si>
+  <si>
+    <t>Kul-swamini 90ft</t>
+  </si>
+  <si>
+    <t>32.5 mtr</t>
+  </si>
+  <si>
+    <t>18.6 mtr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -754,7 +791,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,13 +842,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,12 +927,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,14 +1026,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1190,6 +1215,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1200,6 +1234,17 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1363,7 +1408,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1375,34 +1420,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1432,62 +1477,62 @@
     <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1592,35 +1637,49 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1632,14 +1691,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1959,51 +2019,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90909090909091" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="14.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="11.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="12.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="11.9090909090909" customWidth="1"/>
+    <col min="2" max="3" width="14.4571428571429" customWidth="1"/>
+    <col min="4" max="4" width="11.9047619047619" customWidth="1"/>
+    <col min="6" max="6" width="12.3619047619048" customWidth="1"/>
+    <col min="12" max="12" width="11.9047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.25" spans="1:9">
-      <c r="A1" s="57" t="s">
+    <row r="1" ht="15.75" spans="1:9">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="16.25" spans="1:9">
-      <c r="A2" s="57">
+    <row r="2" ht="16.5" spans="1:9">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
       <c r="B2" s="20">
@@ -2015,18 +2075,18 @@
       <c r="D2" s="22">
         <v>400000</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57">
+      <c r="G2" s="63"/>
+      <c r="H2" s="63">
         <v>0</v>
       </c>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" ht="16.25" spans="1:12">
-      <c r="A3" s="57">
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:12">
+      <c r="A3" s="63">
         <v>2</v>
       </c>
       <c r="B3" s="20">
@@ -2038,23 +2098,23 @@
       <c r="D3" s="22">
         <v>40100</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="63">
         <v>40000</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58">
+      <c r="G3" s="64"/>
+      <c r="H3" s="64">
         <v>260000</v>
       </c>
-      <c r="I3" s="58"/>
+      <c r="I3" s="64"/>
       <c r="L3" s="23">
         <v>447460</v>
       </c>
     </row>
-    <row r="4" ht="16.25" spans="1:12">
-      <c r="A4" s="57">
+    <row r="4" ht="16.5" spans="1:12">
+      <c r="A4" s="63">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2066,19 +2126,19 @@
       <c r="D4" s="22">
         <v>400000</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="L4" s="61">
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="L4" s="67">
         <v>571876</v>
       </c>
     </row>
-    <row r="5" ht="16.25" spans="1:12">
-      <c r="A5" s="57">
+    <row r="5" ht="16.5" spans="1:12">
+      <c r="A5" s="63">
         <v>4</v>
       </c>
       <c r="B5" s="20">
@@ -2090,252 +2150,364 @@
       <c r="D5" s="23">
         <v>447460</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57" t="s">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="L5" s="66">
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="L5" s="72">
         <v>400000</v>
       </c>
     </row>
-    <row r="6" ht="16.25" spans="1:12">
-      <c r="A6" s="57">
+    <row r="6" ht="16.5" spans="1:12">
+      <c r="A6" s="63">
         <v>5</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="65">
         <v>45358</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="67">
         <v>571876</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="L6" s="66">
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="L6" s="72">
         <v>720000</v>
       </c>
     </row>
-    <row r="7" ht="16.25" spans="1:12">
-      <c r="A7" s="63">
+    <row r="7" ht="16.5" spans="1:12">
+      <c r="A7" s="69">
         <v>6</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="70">
         <v>45574</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="72">
         <v>400000</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37" t="s">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="72">
         <v>70000</v>
       </c>
     </row>
-    <row r="8" ht="16.25" spans="1:12">
-      <c r="A8" s="63">
+    <row r="8" ht="16.5" spans="1:12">
+      <c r="A8" s="69">
         <v>7</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="70">
         <v>45574</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="72">
         <v>720000</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37" t="s">
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="72">
         <v>13000</v>
       </c>
     </row>
-    <row r="9" ht="16.25" spans="1:12">
-      <c r="A9" s="63">
+    <row r="9" ht="16.5" spans="1:12">
+      <c r="A9" s="69">
         <v>8</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="70">
         <v>45574</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="72">
         <v>70000</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="E9" s="41"/>
+      <c r="F9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37" t="s">
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="72">
         <v>48500</v>
       </c>
     </row>
-    <row r="10" ht="16.25" spans="1:12">
-      <c r="A10" s="63">
+    <row r="10" ht="16.5" spans="1:12">
+      <c r="A10" s="69">
         <v>9</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="72">
         <v>13000</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="66">
+      <c r="L10" s="72">
         <v>40000</v>
       </c>
     </row>
-    <row r="11" ht="16.25" spans="1:12">
-      <c r="A11" s="57">
+    <row r="11" ht="16.5" spans="1:12">
+      <c r="A11" s="63">
         <v>10</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="72">
         <v>48500</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="37" t="s">
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="72">
         <v>14000</v>
       </c>
     </row>
-    <row r="12" ht="16.25" spans="1:12">
-      <c r="A12" s="57"/>
-      <c r="B12" s="64" t="s">
+    <row r="12" ht="16.5" spans="1:12">
+      <c r="A12" s="63"/>
+      <c r="B12" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="72">
         <v>40000</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67" t="s">
+      <c r="E12" s="73"/>
+      <c r="F12" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="37" t="s">
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="75">
         <f>SUM(L3:L11)</f>
         <v>2324836</v>
       </c>
     </row>
-    <row r="13" ht="16.25" spans="1:9">
-      <c r="A13" s="57"/>
-      <c r="B13" s="64" t="s">
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="63"/>
+      <c r="B13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="72">
         <v>14000</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67" t="s">
+      <c r="E13" s="73"/>
+      <c r="F13" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="37" t="s">
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" ht="15.25" spans="1:9">
-      <c r="A14" s="57"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-    </row>
-    <row r="15" ht="15.25" spans="1:9">
-      <c r="A15" s="57">
+    <row r="14" ht="15.75" spans="1:9">
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="76"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:9">
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="76"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:9">
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="76"/>
+    </row>
+    <row r="17" ht="15.75" spans="1:9">
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:9">
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="76"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:9">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="76"/>
+    </row>
+    <row r="20" ht="15.75" spans="1:9">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="76"/>
+    </row>
+    <row r="21" ht="15.75" spans="1:9">
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="76"/>
+    </row>
+    <row r="22" ht="15.75" spans="1:9">
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="76"/>
+    </row>
+    <row r="23" ht="15.75" spans="1:9">
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="76"/>
+    </row>
+    <row r="24" ht="15.75" spans="1:9">
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:9">
+      <c r="A25" s="63">
         <v>11</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-    </row>
-    <row r="16" ht="15.25" spans="3:9">
-      <c r="C16" s="57" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+    </row>
+    <row r="26" ht="15.75" spans="3:9">
+      <c r="C26" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="68">
-        <f>SUM(D2:D15)</f>
+      <c r="D26" s="74">
+        <f>SUM(D2:D25)</f>
         <v>3164936</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2346,923 +2518,923 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.8181818181818" style="37" customWidth="1"/>
-    <col min="2" max="2" width="17.6363636363636" style="37" customWidth="1"/>
-    <col min="3" max="3" width="9" style="37"/>
-    <col min="4" max="4" width="11" style="37" customWidth="1"/>
-    <col min="5" max="5" width="9" style="37"/>
-    <col min="6" max="6" width="12.8181818181818" style="37" customWidth="1"/>
-    <col min="8" max="8" width="12.8181818181818" customWidth="1"/>
-    <col min="10" max="10" width="12.6363636363636" customWidth="1"/>
-    <col min="16" max="16" width="11.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="17.8190476190476" style="41" customWidth="1"/>
+    <col min="2" max="2" width="17.6380952380952" style="41" customWidth="1"/>
+    <col min="3" max="3" width="9" style="41"/>
+    <col min="4" max="4" width="11" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9" style="41"/>
+    <col min="6" max="6" width="12.8190476190476" style="41" customWidth="1"/>
+    <col min="8" max="8" width="12.8190476190476" customWidth="1"/>
+    <col min="10" max="10" width="12.6380952380952" customWidth="1"/>
+    <col min="16" max="16" width="11.0952380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="H1" s="39" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="H1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="54" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="58" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="42">
+      <c r="A3" s="46">
         <v>45173</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="47">
         <v>24750</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="47">
         <v>25000</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="49">
         <v>45173</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="41">
         <v>24750</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="41">
         <v>25000</v>
       </c>
-      <c r="K3" s="37"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="42">
+      <c r="A4" s="46">
         <v>45178</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="47">
         <v>29700</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="47">
         <v>30000</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="H4" s="45">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+      <c r="H4" s="49">
         <v>45178</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="41">
         <v>29700</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="41">
         <v>30000</v>
       </c>
-      <c r="K4" s="37"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="42">
+      <c r="A5" s="46">
         <v>45185</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="47">
         <v>19800</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="47">
         <v>20000</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="H5" s="45">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="H5" s="49">
         <v>45185</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="41">
         <v>19800</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="41">
         <v>20000</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="42">
+      <c r="A6" s="46">
         <v>45194</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="47">
         <v>49500</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="47">
         <v>50000</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="H6" s="45">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="H6" s="49">
         <v>45194</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="41">
         <v>49500</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="41">
         <v>50000</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="42">
+      <c r="A7" s="46">
         <v>45206</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="47">
         <v>39600</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="47">
         <v>40000</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="H7" s="45">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="H7" s="49">
         <v>45206</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="41">
         <v>39600</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="41">
         <v>40000</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="42">
+      <c r="A8" s="46">
         <v>45220</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="47">
         <v>49500</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="47">
         <v>50000</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="H8" s="45">
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="H8" s="49">
         <v>45220</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="41">
         <v>49500</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="41">
         <v>50000</v>
       </c>
-      <c r="K8" s="37"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="46">
+      <c r="A9" s="50">
         <v>45233</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="51">
         <v>39699</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="51">
         <v>40000</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="52">
         <v>45232</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="44">
         <v>40100</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="49">
         <v>45240</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="41">
         <v>99000</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="41">
         <v>100000</v>
       </c>
-      <c r="K9" s="37"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="42">
+      <c r="A10" s="46">
         <v>45240</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="47">
         <v>99000</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="47">
         <v>100000</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="49">
         <v>45254</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="41">
         <v>24750</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="41">
         <v>25000</v>
       </c>
-      <c r="K10" s="37"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="42">
+      <c r="A11" s="46">
         <v>45254</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="47">
         <v>24750</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="47">
         <v>25000</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="H11" s="45">
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="H11" s="49">
         <v>45257</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="41">
         <v>99000</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="41">
         <v>100000</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="N11" s="37">
+      <c r="K11" s="41"/>
+      <c r="N11" s="41">
         <v>25000</v>
       </c>
-      <c r="Q11" s="37">
+      <c r="Q11" s="41">
         <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="42">
+      <c r="A12" s="46">
         <v>45257</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="47">
         <v>99000</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="47">
         <v>100000</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="H12" s="45">
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="H12" s="49">
         <v>45258</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="41">
         <v>24750</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="41">
         <v>25000</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="N12" s="37">
+      <c r="K12" s="41"/>
+      <c r="N12" s="41">
         <v>30000</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="41">
         <v>20000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="42">
+      <c r="A13" s="46">
         <v>45258</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="47">
         <v>24750</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="47">
         <v>25000</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="H13" s="45">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="H13" s="49">
         <v>45279</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="41">
         <v>49500</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="41">
         <v>50000</v>
       </c>
-      <c r="K13" s="37"/>
-      <c r="N13" s="37">
+      <c r="K13" s="41"/>
+      <c r="N13" s="41">
         <v>20000</v>
       </c>
-      <c r="Q13" s="37">
+      <c r="Q13" s="41">
         <v>25000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="42">
+      <c r="A14" s="46">
         <v>45279</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="47">
         <v>49500</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="47">
         <v>50000</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="H14" s="45">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="H14" s="49">
         <v>45311</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="41">
         <v>24750</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="41">
         <v>25000</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="N14" s="37">
+      <c r="K14" s="41"/>
+      <c r="N14" s="41">
         <v>50000</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="41">
         <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="42">
+      <c r="A15" s="46">
         <v>45311</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="47">
         <v>24750</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="47">
         <v>25000</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="H15" s="45">
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="H15" s="49">
         <v>45334</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="41">
         <v>49500</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="41">
         <v>50000</v>
       </c>
-      <c r="K15" s="51"/>
-      <c r="N15" s="37">
+      <c r="K15" s="57"/>
+      <c r="N15" s="41">
         <v>40000</v>
       </c>
-      <c r="Q15" s="37">
+      <c r="Q15" s="41">
         <v>50000</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="45">
+      <c r="A16" s="54">
         <v>45334</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="41">
         <v>49500</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="41">
         <v>50000</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="49">
         <v>45346</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="41">
         <v>19800</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="41">
         <v>20000</v>
       </c>
-      <c r="K16" s="51"/>
-      <c r="N16" s="37">
+      <c r="K16" s="57"/>
+      <c r="N16" s="41">
         <v>50000</v>
       </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="41">
         <v>50000</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="45">
+      <c r="A17" s="54">
         <v>45346</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="41">
         <v>19800</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="41">
         <v>20000</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="49">
         <v>45360</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="41">
         <v>24750</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="41">
         <v>25000</v>
       </c>
-      <c r="K17" s="51"/>
-      <c r="N17" s="37">
+      <c r="K17" s="57"/>
+      <c r="N17" s="41">
         <v>100000</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="41">
         <v>25000</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="45">
+      <c r="A18" s="54">
         <v>45360</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="41">
         <v>24750</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="41">
         <v>25000</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="49">
         <v>45367</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="41">
         <v>99000</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="41">
         <v>100000</v>
       </c>
-      <c r="K18" s="51"/>
-      <c r="N18" s="37">
+      <c r="K18" s="57"/>
+      <c r="N18" s="41">
         <v>25000</v>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="41">
         <v>100000</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="45">
+      <c r="A19" s="54">
         <v>45367</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="41">
         <v>99000</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="41">
         <v>100000</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="49">
         <v>45374</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="41">
         <v>49500</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="41">
         <v>50000</v>
       </c>
-      <c r="K19" s="51"/>
-      <c r="N19" s="37">
+      <c r="K19" s="57"/>
+      <c r="N19" s="41">
         <v>100000</v>
       </c>
-      <c r="Q19" s="37">
+      <c r="Q19" s="41">
         <v>50000</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="45">
+      <c r="A20" s="54">
         <v>45374</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="41">
         <v>49500</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="41">
         <v>50000</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="49">
         <v>45373</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="41">
         <v>49500</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="41">
         <v>50000</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="N20" s="37">
+      <c r="K20" s="57"/>
+      <c r="N20" s="41">
         <v>25000</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="57">
         <v>30000</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="45">
+      <c r="A21" s="54">
         <v>45373</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="41">
         <v>49500</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="41">
         <v>50000</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="49">
         <v>45388</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="41">
         <v>24750</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="41">
         <v>25000</v>
       </c>
-      <c r="K21" s="51"/>
-      <c r="N21" s="37">
+      <c r="K21" s="57"/>
+      <c r="N21" s="41">
         <v>50000</v>
       </c>
-      <c r="O21" s="55"/>
-      <c r="Q21" s="51">
+      <c r="O21" s="59"/>
+      <c r="Q21" s="57">
         <v>30000</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="45">
+      <c r="A22" s="54">
         <v>45388</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="41">
         <v>24750</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="41">
         <v>25000</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="49">
         <v>45395</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="41">
         <v>99000</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="41">
         <v>100000</v>
       </c>
-      <c r="K22" s="51"/>
-      <c r="N22" s="37">
+      <c r="K22" s="57"/>
+      <c r="N22" s="41">
         <v>25000</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="57">
         <v>20000</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="45">
+      <c r="A23" s="54">
         <v>45395</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="41">
         <v>99000</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="41">
         <v>100000</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="49">
         <v>45398</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="41">
         <v>49500</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="41">
         <v>50000</v>
       </c>
-      <c r="K23" s="51"/>
+      <c r="K23" s="57"/>
       <c r="N23">
         <f>SUM(N11:N22)</f>
         <v>540000</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="57">
         <v>150000</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="45">
+      <c r="A24" s="54">
         <v>45398</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="41">
         <v>49500</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="41">
         <v>50000</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="55">
         <v>45423</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="57">
         <v>29700</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="57">
         <v>30000</v>
       </c>
-      <c r="K24" s="51"/>
-      <c r="Q24" s="51">
+      <c r="K24" s="57"/>
+      <c r="Q24" s="57">
         <v>50000</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="50">
+      <c r="A25" s="56">
         <v>45423</v>
       </c>
-      <c r="B25" s="51">
+      <c r="B25" s="57">
         <v>29700</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="57">
         <v>30000</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="H25" s="50">
+      <c r="D25" s="57"/>
+      <c r="H25" s="55">
         <v>45430</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="57">
         <v>30000</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="57">
         <v>30000</v>
       </c>
-      <c r="K25" s="51"/>
-      <c r="Q25" s="56">
+      <c r="K25" s="57"/>
+      <c r="Q25" s="60">
         <v>20000</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="50">
+      <c r="A26" s="56">
         <v>45430</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="57">
         <v>30000</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="57">
         <v>30000</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="H26" s="50">
+      <c r="D26" s="57"/>
+      <c r="H26" s="55">
         <v>45440</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="57">
         <v>20000</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="57">
         <v>20000</v>
       </c>
-      <c r="K26" s="51"/>
-      <c r="N26" s="37">
+      <c r="K26" s="57"/>
+      <c r="N26" s="41">
         <v>25000</v>
       </c>
-      <c r="P26" s="43" t="s">
+      <c r="P26" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="Q26" s="43">
+      <c r="Q26" s="47">
         <f>SUM(Q11:Q25)</f>
         <v>770000</v>
       </c>
-      <c r="R26" s="37"/>
+      <c r="R26" s="41"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="50">
+      <c r="A27" s="56">
         <v>45440</v>
       </c>
-      <c r="B27" s="51">
+      <c r="B27" s="57">
         <v>20000</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="57">
         <v>20000</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="H27" s="50">
+      <c r="D27" s="57"/>
+      <c r="H27" s="55">
         <v>45455</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="57">
         <v>148500</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="57">
         <v>150000</v>
       </c>
-      <c r="K27" s="51"/>
-      <c r="N27" s="37">
+      <c r="K27" s="57"/>
+      <c r="N27" s="41">
         <v>100000</v>
       </c>
-      <c r="P27" s="37" t="s">
+      <c r="P27" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="41">
         <v>260000</v>
       </c>
-      <c r="R27" s="37"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="50">
+      <c r="A28" s="56">
         <v>45455</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="57">
         <v>148500</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="57">
         <v>150000</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51">
+      <c r="D28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57">
         <f>SUM(I3:I27)</f>
         <v>1228100</v>
       </c>
-      <c r="J28" s="51">
+      <c r="J28" s="57">
         <f>SUM(J3:J27)</f>
         <v>1240000</v>
       </c>
-      <c r="K28" s="51"/>
-      <c r="N28" s="37">
+      <c r="K28" s="57"/>
+      <c r="N28" s="41">
         <v>50000</v>
       </c>
-      <c r="P28" s="37" t="s">
+      <c r="P28" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="41">
         <v>447460</v>
       </c>
-      <c r="R28" s="37"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="50">
+      <c r="A29" s="56">
         <v>45458</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="41">
         <v>49500</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="57">
         <v>50000</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="N29" s="51">
+      <c r="D29" s="57"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="N29" s="57">
         <v>30000</v>
       </c>
-      <c r="P29" s="37" t="s">
+      <c r="P29" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q29" s="41">
         <v>62540</v>
       </c>
-      <c r="R29" s="37" t="s">
+      <c r="R29" s="41" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="50">
+      <c r="A30" s="56">
         <v>45465</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51">
+      <c r="B30" s="57"/>
+      <c r="C30" s="57">
         <v>20000</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="N30" s="51">
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="N30" s="57">
         <v>30000</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="50">
+      <c r="A31" s="56">
         <v>45474</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="57">
         <v>19800</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="57">
         <v>20000</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N31" s="51">
+      <c r="N31" s="57">
         <v>20000</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="45">
+      <c r="A32" s="54">
         <v>45479</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="41">
         <v>19800</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="41">
         <v>20000</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="N32" s="51">
+      <c r="N32" s="57">
         <v>150000</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="45">
+      <c r="A33" s="54">
         <v>45488</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="41">
         <v>20000</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="41">
         <v>20000</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="N33" s="51">
+      <c r="N33" s="57">
         <v>50000</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="45">
+      <c r="A34" s="54">
         <v>45488</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="41">
         <v>100000</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="41">
         <v>100000</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="N34" s="51">
+      <c r="N34" s="57">
         <v>20000</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="45">
+      <c r="A35" s="54">
         <v>45494</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="41">
         <v>19800</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="41">
         <v>20000</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="41" t="s">
         <v>47</v>
       </c>
       <c r="N35">
@@ -3271,86 +3443,86 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="45">
+      <c r="A36" s="54">
         <v>45500</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="41">
         <v>19800</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="41">
         <v>20000</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="45">
+      <c r="A37" s="54">
         <v>45507</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="41">
         <v>19800</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="41">
         <v>20000</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="45">
+      <c r="A38" s="54">
         <v>45513</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="41">
         <v>39600</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="41">
         <v>40000</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="45">
+      <c r="A39" s="54">
         <v>45518</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="41">
         <v>99000</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="41">
         <v>100000</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="45">
+      <c r="A40" s="54">
         <v>45523</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="41">
         <v>19800</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="41">
         <v>20000</v>
       </c>
-      <c r="F40" s="37" t="s">
+      <c r="F40" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="45">
+      <c r="A41" s="54">
         <v>45524</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="41">
         <v>29700</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="41">
         <v>30000</v>
       </c>
-      <c r="F41" s="37" t="s">
+      <c r="F41" s="41" t="s">
         <v>48</v>
       </c>
       <c r="H41">
@@ -3358,190 +3530,448 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="45">
+      <c r="A42" s="54">
         <v>45530</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="41">
         <v>19800</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="41">
         <v>20000</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F42" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="45">
+      <c r="A43" s="54">
         <v>45535</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="41">
         <v>19800</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="41">
         <v>20000</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="F43" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="45">
+      <c r="A44" s="54">
         <v>45543</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="41">
         <v>19800</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="41">
         <v>20000</v>
       </c>
-      <c r="F44" s="37" t="s">
+      <c r="F44" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="45">
+      <c r="A45" s="54">
         <v>45550</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="41">
         <v>19800</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="41">
         <v>20000</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="45">
+      <c r="A46" s="54">
         <v>45551</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="41">
         <v>99000</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="41">
         <v>100000</v>
       </c>
-      <c r="F46" s="37" t="s">
+      <c r="F46" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="45">
+      <c r="A47" s="54">
         <v>45556</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="41">
         <v>19800</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="41">
         <v>20000</v>
       </c>
-      <c r="F47" s="37" t="s">
+      <c r="F47" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" s="36" customFormat="1" spans="1:6">
-      <c r="A48" s="45">
+    <row r="48" s="40" customFormat="1" spans="1:6">
+      <c r="A48" s="54">
         <v>45557</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="41">
         <v>69300</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="41">
         <v>70000</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37" t="s">
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="45">
+      <c r="A49" s="54">
         <v>45567</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="41">
         <v>29700</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="41">
         <v>30000</v>
       </c>
-      <c r="F49" s="37" t="s">
+      <c r="F49" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="45">
+      <c r="A50" s="54">
         <v>45570</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="41">
         <v>19800</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="41">
         <v>20000</v>
       </c>
-      <c r="F50" s="37" t="s">
+      <c r="F50" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="45">
+      <c r="A51" s="54">
         <v>45579</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="41">
         <v>99000</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="41">
         <v>100000</v>
       </c>
-      <c r="F51" s="37" t="s">
+      <c r="F51" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="45">
+      <c r="A52" s="54">
         <v>45586</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="41">
         <v>19800</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="41">
         <v>20000</v>
       </c>
-      <c r="F52" s="37" t="s">
+      <c r="F52" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="45">
+      <c r="A53" s="54">
         <v>45589</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="41">
         <v>198000</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="41">
         <v>200000</v>
       </c>
-      <c r="F53" s="37" t="s">
+      <c r="F53" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52">
-        <f>SUM(B3:B54)</f>
-        <v>2357999</v>
-      </c>
-      <c r="C55" s="52">
-        <f>SUM(C3:C54)</f>
-        <v>2400000</v>
-      </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
+    <row r="54" spans="1:6">
+      <c r="A54" s="54">
+        <v>45606</v>
+      </c>
+      <c r="B54" s="41">
+        <v>19800</v>
+      </c>
+      <c r="C54" s="41">
+        <v>20000</v>
+      </c>
+      <c r="F54" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="54">
+        <v>45610</v>
+      </c>
+      <c r="B55" s="41">
+        <v>19800</v>
+      </c>
+      <c r="C55" s="41">
+        <v>20000</v>
+      </c>
+      <c r="F55" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="54">
+        <v>45613</v>
+      </c>
+      <c r="B56" s="41">
+        <v>29700</v>
+      </c>
+      <c r="C56" s="41">
+        <v>30000</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="54">
+        <v>45619</v>
+      </c>
+      <c r="B57" s="41">
+        <v>29700</v>
+      </c>
+      <c r="C57" s="41">
+        <v>30000</v>
+      </c>
+      <c r="F57" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="54">
+        <v>45626</v>
+      </c>
+      <c r="B58" s="41">
+        <v>19800</v>
+      </c>
+      <c r="C58" s="41">
+        <v>20000</v>
+      </c>
+      <c r="F58" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="54">
+        <v>45633</v>
+      </c>
+      <c r="B59" s="41">
+        <v>19800</v>
+      </c>
+      <c r="C59" s="41">
+        <v>20000</v>
+      </c>
+      <c r="F59" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="54">
+        <v>45634</v>
+      </c>
+      <c r="B60" s="41">
+        <v>99000</v>
+      </c>
+      <c r="C60" s="41">
+        <v>100000</v>
+      </c>
+      <c r="F60" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="54">
+        <v>45640</v>
+      </c>
+      <c r="B61" s="41">
+        <v>29700</v>
+      </c>
+      <c r="C61" s="41">
+        <v>30000</v>
+      </c>
+      <c r="F61" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="54">
+        <v>45647</v>
+      </c>
+      <c r="B62" s="41">
+        <v>19800</v>
+      </c>
+      <c r="C62" s="41">
+        <v>20000</v>
+      </c>
+      <c r="F62" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="54">
+        <v>45654</v>
+      </c>
+      <c r="B63" s="41">
+        <v>39600</v>
+      </c>
+      <c r="C63" s="41">
+        <v>40000</v>
+      </c>
+      <c r="F63" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="54">
+        <v>45661</v>
+      </c>
+      <c r="B64" s="41">
+        <v>19800</v>
+      </c>
+      <c r="C64" s="41">
+        <v>20000</v>
+      </c>
+      <c r="F64" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="54">
+        <v>45668</v>
+      </c>
+      <c r="B65" s="41">
+        <v>19800</v>
+      </c>
+      <c r="C65" s="41">
+        <v>20000</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="54">
+        <v>45670</v>
+      </c>
+      <c r="B66" s="41">
+        <v>148500</v>
+      </c>
+      <c r="C66" s="41">
+        <v>150000</v>
+      </c>
+      <c r="F66" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="54">
+        <v>45677</v>
+      </c>
+      <c r="B67" s="41">
+        <v>19800</v>
+      </c>
+      <c r="C67" s="41">
+        <v>20000</v>
+      </c>
+      <c r="F67" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="54">
+        <v>45682</v>
+      </c>
+      <c r="B68" s="41">
+        <v>29700</v>
+      </c>
+      <c r="C68" s="41">
+        <v>30000</v>
+      </c>
+      <c r="F68" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="54">
+        <v>45689</v>
+      </c>
+      <c r="B69" s="41">
+        <v>19800</v>
+      </c>
+      <c r="C69" s="41">
+        <v>20000</v>
+      </c>
+      <c r="F69" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="54">
+        <v>45694</v>
+      </c>
+      <c r="B70" s="41">
+        <v>99000</v>
+      </c>
+      <c r="C70" s="41">
+        <v>100000</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="54">
+        <v>45698</v>
+      </c>
+      <c r="B71" s="41">
+        <v>49500</v>
+      </c>
+      <c r="C71" s="41">
+        <v>50000</v>
+      </c>
+      <c r="F71" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="54"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="54"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="61"/>
+      <c r="B75" s="61">
+        <f>SUM(B3:B73)</f>
+        <v>3090599</v>
+      </c>
+      <c r="C75" s="61">
+        <f>SUM(C3:C73)</f>
+        <v>3140000</v>
+      </c>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3558,17 +3988,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="45.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="13.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="15.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="17.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="45.0952380952381" customWidth="1"/>
+    <col min="3" max="3" width="13.8190476190476" customWidth="1"/>
+    <col min="4" max="4" width="15.9047619047619" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4900,8 +5331,290 @@
         <v>14000</v>
       </c>
     </row>
+    <row r="105" customHeight="1" spans="1:2">
+      <c r="A105" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:5">
+      <c r="A107" s="3">
+        <v>1</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D107" s="36">
+        <v>620</v>
+      </c>
+      <c r="E107" s="37">
+        <v>13020</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:5">
+      <c r="A108" s="3">
+        <v>2</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" s="36">
+        <v>320</v>
+      </c>
+      <c r="E108" s="37">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:5">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="38"/>
+      <c r="E109" s="39">
+        <f>SUM(E107:E108)</f>
+        <v>16092</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:5">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D110" s="10"/>
+      <c r="E110" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:5">
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11">
+        <f>SUM(E109-E110)</f>
+        <v>16092</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:2">
+      <c r="A114" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:5">
+      <c r="A116" s="3">
+        <v>1</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D116" s="36">
+        <v>620</v>
+      </c>
+      <c r="E116" s="37">
+        <v>20460</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:5">
+      <c r="A117" s="3">
+        <v>2</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D117" s="36">
+        <v>320</v>
+      </c>
+      <c r="E117" s="37">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:5">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="38"/>
+      <c r="E118" s="39">
+        <f>SUM(E116:E117)</f>
+        <v>25388</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:5">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D119" s="10"/>
+      <c r="E119" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:5">
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11">
+        <f>SUM(E118-E119)</f>
+        <v>25388</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:2">
+      <c r="A123" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:5">
+      <c r="A124" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:5">
+      <c r="A125" s="3">
+        <v>1</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D125" s="36">
+        <v>620</v>
+      </c>
+      <c r="E125" s="37">
+        <v>20150</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:5">
+      <c r="A126" s="3">
+        <v>2</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D126" s="36">
+        <v>320</v>
+      </c>
+      <c r="E126" s="37">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:5">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="38"/>
+      <c r="E127" s="39">
+        <f>SUM(E125:E126)</f>
+        <v>26102</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:5">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D128" s="10"/>
+      <c r="E128" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:5">
+      <c r="A129" s="13"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D129" s="10"/>
+      <c r="E129" s="11">
+        <f>SUM(E127-E128)</f>
+        <v>26102</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="57">
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -4926,6 +5639,15 @@
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A49:A51"/>
@@ -4934,6 +5656,9 @@
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="A92:A94"/>
     <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A127:A129"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B49:B51"/>
@@ -4942,6 +5667,9 @@
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B92:B94"/>
     <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B127:B129"/>
     <mergeCell ref="E66:E68"/>
     <mergeCell ref="E75:E82"/>
   </mergeCells>

--- a/Fire work/Company/Fire Infra/Billing file infra.xlsx
+++ b/Fire work/Company/Fire Infra/Billing file infra.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500"/>
+    <workbookView windowWidth="19635" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Billing Log" sheetId="3" r:id="rId1"/>
@@ -1532,7 +1532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1680,6 +1680,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2021,7 +2022,7 @@
   <sheetPr/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -2034,36 +2035,36 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:9">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:9">
-      <c r="A2" s="63">
+      <c r="A2" s="64">
         <v>1</v>
       </c>
       <c r="B2" s="20">
@@ -2075,18 +2076,18 @@
       <c r="D2" s="22">
         <v>400000</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64">
         <v>0</v>
       </c>
-      <c r="I2" s="63"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" ht="16.5" spans="1:12">
-      <c r="A3" s="63">
+      <c r="A3" s="64">
         <v>2</v>
       </c>
       <c r="B3" s="20">
@@ -2098,23 +2099,23 @@
       <c r="D3" s="22">
         <v>40100</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="64">
         <v>40000</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64">
+      <c r="G3" s="65"/>
+      <c r="H3" s="65">
         <v>260000</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="65"/>
       <c r="L3" s="23">
         <v>447460</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:12">
-      <c r="A4" s="63">
+      <c r="A4" s="64">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2126,19 +2127,19 @@
       <c r="D4" s="22">
         <v>400000</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="L4" s="67">
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="L4" s="68">
         <v>571876</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:12">
-      <c r="A5" s="63">
+      <c r="A5" s="64">
         <v>4</v>
       </c>
       <c r="B5" s="20">
@@ -2150,52 +2151,52 @@
       <c r="D5" s="23">
         <v>447460</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="L5" s="72">
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="L5" s="73">
         <v>400000</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:12">
-      <c r="A6" s="63">
+      <c r="A6" s="64">
         <v>5</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="66">
         <v>45358</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="68">
         <v>571876</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="L6" s="72">
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="L6" s="73">
         <v>720000</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:12">
-      <c r="A7" s="69">
+      <c r="A7" s="70">
         <v>6</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="71">
         <v>45574</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="73">
         <v>400000</v>
       </c>
       <c r="E7" s="41"/>
@@ -2207,21 +2208,21 @@
       <c r="I7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="73">
         <v>70000</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:12">
-      <c r="A8" s="69">
+      <c r="A8" s="70">
         <v>7</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="71">
         <v>45574</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="73">
         <v>720000</v>
       </c>
       <c r="E8" s="41"/>
@@ -2233,21 +2234,21 @@
       <c r="I8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="72">
+      <c r="L8" s="73">
         <v>13000</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:12">
-      <c r="A9" s="69">
+      <c r="A9" s="70">
         <v>8</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="71">
         <v>45574</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="73">
         <v>70000</v>
       </c>
       <c r="E9" s="41"/>
@@ -2259,21 +2260,21 @@
       <c r="I9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="72">
+      <c r="L9" s="73">
         <v>48500</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:12">
-      <c r="A10" s="69">
+      <c r="A10" s="70">
         <v>9</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="73">
         <v>13000</v>
       </c>
       <c r="E10" s="41"/>
@@ -2285,229 +2286,229 @@
       <c r="I10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="72">
+      <c r="L10" s="73">
         <v>40000</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:12">
-      <c r="A11" s="63">
+      <c r="A11" s="64">
         <v>10</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="73">
         <v>48500</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73" t="s">
+      <c r="E11" s="74"/>
+      <c r="F11" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
       <c r="I11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="73">
         <v>14000</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:12">
-      <c r="A12" s="63"/>
-      <c r="B12" s="70" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="73">
         <v>40000</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73" t="s">
+      <c r="E12" s="74"/>
+      <c r="F12" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="75">
+      <c r="L12" s="76">
         <f>SUM(L3:L11)</f>
         <v>2324836</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:9">
-      <c r="A13" s="63"/>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="73">
         <v>14000</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73" t="s">
+      <c r="E13" s="74"/>
+      <c r="F13" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
       <c r="I13" s="41" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:9">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="76"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="77"/>
     </row>
     <row r="15" ht="15.75" spans="1:9">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="76"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="77"/>
     </row>
     <row r="16" ht="15.75" spans="1:9">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="76"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="77"/>
     </row>
     <row r="17" ht="15.75" spans="1:9">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="76"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="77"/>
     </row>
     <row r="18" ht="15.75" spans="1:9">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="76"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="77"/>
     </row>
     <row r="19" ht="15.75" spans="1:9">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="76"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" ht="15.75" spans="1:9">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="76"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="77"/>
     </row>
     <row r="21" ht="15.75" spans="1:9">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="76"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="77"/>
     </row>
     <row r="22" ht="15.75" spans="1:9">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="76"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="77"/>
     </row>
     <row r="23" ht="15.75" spans="1:9">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="76"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="77"/>
     </row>
     <row r="24" ht="15.75" spans="1:9">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
     </row>
     <row r="25" ht="15.75" spans="1:9">
-      <c r="A25" s="63">
+      <c r="A25" s="64">
         <v>11</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
     </row>
     <row r="26" ht="15.75" spans="3:9">
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="75">
         <f>SUM(D2:D25)</f>
         <v>3164936</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2520,8 +2521,8 @@
   <sheetPr/>
   <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3839,7 +3840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:11">
       <c r="A64" s="54">
         <v>45661</v>
       </c>
@@ -3852,8 +3853,11 @@
       <c r="F64" s="41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="K64" s="41">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="54">
         <v>45668</v>
       </c>
@@ -3866,8 +3870,11 @@
       <c r="F65" s="41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="K65" s="41">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="54">
         <v>45670</v>
       </c>
@@ -3880,8 +3887,11 @@
       <c r="F66" s="41" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="K66" s="41">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="54">
         <v>45677</v>
       </c>
@@ -3894,8 +3904,11 @@
       <c r="F67" s="41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="K67" s="41">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="54">
         <v>45682</v>
       </c>
@@ -3908,8 +3921,11 @@
       <c r="F68" s="41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="K68" s="41">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="54">
         <v>45689</v>
       </c>
@@ -3922,8 +3938,11 @@
       <c r="F69" s="41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="K69" s="41">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="54">
         <v>45694</v>
       </c>
@@ -3936,8 +3955,11 @@
       <c r="F70" s="41" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="K70" s="41">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="54">
         <v>45698</v>
       </c>
@@ -3950,9 +3972,16 @@
       <c r="F71" s="41" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="K71" s="41">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="54"/>
+      <c r="K72" s="63">
+        <f>SUM(K64:K71)</f>
+        <v>410000</v>
+      </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="54"/>

--- a/Fire work/Company/Fire Infra/Billing file infra.xlsx
+++ b/Fire work/Company/Fire Infra/Billing file infra.xlsx
@@ -1,35 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\15042024\balaji-general-file\Fire work\Company\Fire Infra\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A9D336-C276-4868-8BD2-48DFE994A947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing Log" sheetId="3" r:id="rId1"/>
     <sheet name="Inward Payment" sheetId="1" r:id="rId2"/>
     <sheet name="General" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">General!$B$175</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="211">
   <si>
     <t>Sno</t>
   </si>
@@ -568,25 +564,226 @@
   <si>
     <t>18.6 mtr</t>
   </si>
+  <si>
+    <t>Shahitya</t>
+  </si>
+  <si>
+    <t>Pumproom 1 set installation and booster pump installation *</t>
+  </si>
+  <si>
+    <t>Branch pipe nosel pipe installation</t>
+  </si>
+  <si>
+    <t>Singal hydrant valve installation</t>
+  </si>
+  <si>
+    <t>foreway inlet installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two way inllet installation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 mm pipe </t>
+  </si>
+  <si>
+    <t>30 mtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booster pump installation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singal hydrant valve installation </t>
+  </si>
+  <si>
+    <t>Hose reel drum installation</t>
+  </si>
+  <si>
+    <t>Singal door hosebox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convance pipe </t>
+  </si>
+  <si>
+    <t>Branch pipe nosel</t>
+  </si>
+  <si>
+    <t>Blosom school</t>
+  </si>
+  <si>
+    <t>Sprinkler jocky pump installation</t>
+  </si>
+  <si>
+    <t>Hydrant pump installation</t>
+  </si>
+  <si>
+    <t>Hydrant jocky pump installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standby pump installation ,ring line connecting and sprinkler line connecting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anirudham hospital midc </t>
+  </si>
+  <si>
+    <t>Fire infra</t>
+  </si>
+  <si>
+    <t>Main Sprinkler pump installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hose reel drum and settop nosel 20 mm bole valve hose nepel  set installation </t>
+  </si>
+  <si>
+    <t>150 mm pipe ringline installation</t>
+  </si>
+  <si>
+    <t>80 mm hydrant post installation</t>
+  </si>
+  <si>
+    <t>80 mm tank inlet installation</t>
+  </si>
+  <si>
+    <t>100 mm raiser installation</t>
+  </si>
+  <si>
+    <t>Basement Sprikler point installation</t>
+  </si>
+  <si>
+    <t>Singal box hosebox installation</t>
+  </si>
+  <si>
+    <t>convance pipe installation</t>
+  </si>
+  <si>
+    <t>150 mm butterfly installation</t>
+  </si>
+  <si>
+    <t>150 mm NRV installation</t>
+  </si>
+  <si>
+    <t>4 kg fire extingusher installation</t>
+  </si>
+  <si>
+    <t>1 nos</t>
+  </si>
+  <si>
+    <t>NBF/0325/13</t>
+  </si>
+  <si>
+    <t>NBF/0325/14</t>
+  </si>
+  <si>
+    <t>NBF/0325/15</t>
+  </si>
+  <si>
+    <t>NBF/0325/16</t>
+  </si>
+  <si>
+    <t>Sahitya</t>
+  </si>
+  <si>
+    <t>Ashtavinayak banquet</t>
+  </si>
+  <si>
+    <t>Ashtavinayaka banquet</t>
+  </si>
+  <si>
+    <t>Sprinkler point  installation</t>
+  </si>
+  <si>
+    <t>150 mm pipe installation</t>
+  </si>
+  <si>
+    <t>80 mm pipe installation</t>
+  </si>
+  <si>
+    <t>65 mm pipe raiser connecting tarrace installation</t>
+  </si>
+  <si>
+    <t>Blossom School</t>
+  </si>
+  <si>
+    <t>Aniruddham hospital</t>
+  </si>
+  <si>
+    <t>150000 transferred to other vender</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>Bharat Recedency</t>
+  </si>
+  <si>
+    <t>100 mm pipe installation</t>
+  </si>
+  <si>
+    <t>Sprinkler point installation</t>
+  </si>
+  <si>
+    <t>Hose-reel drum installation</t>
+  </si>
+  <si>
+    <t>two way inlet installation</t>
+  </si>
+  <si>
+    <t>44.2 mtr</t>
+  </si>
+  <si>
+    <t>14 nos</t>
+  </si>
+  <si>
+    <t>3 nos</t>
+  </si>
+  <si>
+    <t>9 nos</t>
+  </si>
+  <si>
+    <t>Conveyance pipe installation</t>
+  </si>
+  <si>
+    <t>Branch Pipe Nozzle installation</t>
+  </si>
+  <si>
+    <t>Booster  pump installation</t>
+  </si>
+  <si>
+    <t>NBF/0325/17</t>
+  </si>
+  <si>
+    <t>Bharat Residency</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="[$-409]dd\-mmm\-yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -647,151 +844,63 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF305496"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color rgb="FF305497"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF305497"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF1F497D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,7 +927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,204 +939,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1286,477 +1221,292 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="117">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="78">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2014,1428 +1764,1487 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="3" width="14.4571428571429" customWidth="1"/>
-    <col min="4" max="4" width="11.9047619047619" customWidth="1"/>
-    <col min="6" max="6" width="12.3619047619048" customWidth="1"/>
-    <col min="12" max="12" width="11.9047619047619" customWidth="1"/>
+    <col min="2" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" customWidth="1"/>
+    <col min="12" max="12" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:9">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:9">
-      <c r="A2" s="64">
+    <row r="2" spans="1:12" ht="15.5">
+      <c r="A2" s="53">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="16">
         <v>45240</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="81">
         <v>400000</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53">
         <v>0</v>
       </c>
-      <c r="I2" s="64"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:12">
-      <c r="A3" s="64">
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.5">
+      <c r="A3" s="53">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="16">
         <v>44968</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="81">
         <v>40100</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="53">
         <v>40000</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54">
         <v>260000</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="L3" s="23">
+      <c r="I3" s="54"/>
+      <c r="L3" s="19">
         <v>447460</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:12">
-      <c r="A4" s="64">
+    <row r="4" spans="1:12" ht="15.5">
+      <c r="A4" s="53">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="81">
         <v>400000</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="L4" s="68">
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="L4" s="57">
         <v>571876</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:12">
-      <c r="A5" s="64">
+    <row r="5" spans="1:12" ht="15.5">
+      <c r="A5" s="53">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <v>45358</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="82">
         <v>447460</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="L5" s="73">
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="L5" s="62">
         <v>400000</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:12">
-      <c r="A6" s="64">
+    <row r="6" spans="1:12" ht="15.5">
+      <c r="A6" s="53">
         <v>5</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="55">
         <v>45358</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="83">
         <v>571876</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69" t="s">
+      <c r="E6" s="58"/>
+      <c r="F6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="L6" s="73">
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="L6" s="62">
         <v>720000</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:12">
-      <c r="A7" s="70">
+    <row r="7" spans="1:12" ht="15.5">
+      <c r="A7" s="59">
         <v>6</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="60">
         <v>45574</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="84">
         <v>400000</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="73">
+      <c r="L7" s="62">
         <v>70000</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:12">
-      <c r="A8" s="70">
+    <row r="8" spans="1:12" ht="15.5">
+      <c r="A8" s="59">
         <v>7</v>
       </c>
-      <c r="B8" s="71">
+      <c r="B8" s="60">
         <v>45574</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="84">
         <v>720000</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="73">
+      <c r="L8" s="62">
         <v>13000</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:12">
-      <c r="A9" s="70">
+    <row r="9" spans="1:12" ht="15.5">
+      <c r="A9" s="59">
         <v>8</v>
       </c>
-      <c r="B9" s="71">
+      <c r="B9" s="60">
         <v>45574</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="84">
         <v>70000</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="73">
+      <c r="L9" s="62">
         <v>48500</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:12">
-      <c r="A10" s="70">
+    <row r="10" spans="1:12" ht="15.5">
+      <c r="A10" s="59">
         <v>9</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="84">
         <v>13000</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="73">
+      <c r="L10" s="62">
         <v>40000</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:12">
-      <c r="A11" s="64">
+    <row r="11" spans="1:12" ht="16" thickBot="1">
+      <c r="A11" s="53">
         <v>10</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="84">
         <v>48500</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74" t="s">
+      <c r="E11" s="63"/>
+      <c r="F11" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="41" t="s">
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="73">
+      <c r="L11" s="62">
         <v>14000</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:12">
-      <c r="A12" s="64"/>
-      <c r="B12" s="71" t="s">
+    <row r="12" spans="1:12" ht="16" thickBot="1">
+      <c r="A12" s="59">
+        <v>11</v>
+      </c>
+      <c r="B12" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="84">
         <v>40000</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74" t="s">
+      <c r="E12" s="63"/>
+      <c r="F12" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="41" t="s">
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="76">
+      <c r="L12" s="65">
         <f>SUM(L3:L11)</f>
         <v>2324836</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:9">
-      <c r="A13" s="64"/>
-      <c r="B13" s="71" t="s">
+    <row r="13" spans="1:12" ht="16" thickBot="1">
+      <c r="A13" s="53">
+        <v>12</v>
+      </c>
+      <c r="B13" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="84">
         <v>14000</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74" t="s">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="41" t="s">
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:9">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="77"/>
-    </row>
-    <row r="15" ht="15.75" spans="1:9">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="77"/>
-    </row>
-    <row r="16" ht="15.75" spans="1:9">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="77"/>
-    </row>
-    <row r="17" ht="15.75" spans="1:9">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="77"/>
-    </row>
-    <row r="18" ht="15.75" spans="1:9">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="77"/>
-    </row>
-    <row r="19" ht="15.75" spans="1:9">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="77"/>
-    </row>
-    <row r="20" ht="15.75" spans="1:9">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="77"/>
-    </row>
-    <row r="21" ht="15.75" spans="1:9">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="77"/>
-    </row>
-    <row r="22" ht="15.75" spans="1:9">
-      <c r="A22" s="74"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="77"/>
-    </row>
-    <row r="23" ht="15.75" spans="1:9">
-      <c r="A23" s="74"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="77"/>
-    </row>
-    <row r="24" ht="15.75" spans="1:9">
-      <c r="A24" s="74"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-    </row>
-    <row r="25" ht="15.75" spans="1:9">
-      <c r="A25" s="64">
+    <row r="14" spans="1:12" ht="16" thickBot="1">
+      <c r="A14" s="59">
+        <v>13</v>
+      </c>
+      <c r="B14" s="86">
+        <v>45747</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="88">
+        <v>256540</v>
+      </c>
+      <c r="E14" s="89"/>
+      <c r="F14" s="91" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" thickBot="1">
+      <c r="A15" s="53">
+        <v>14</v>
+      </c>
+      <c r="B15" s="86">
+        <v>45747</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="88">
+        <v>17000</v>
+      </c>
+      <c r="E15" s="89"/>
+      <c r="F15" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16" thickBot="1">
+      <c r="A16" s="53">
+        <v>15</v>
+      </c>
+      <c r="B16" s="86">
+        <v>45747</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="88">
+        <v>92900</v>
+      </c>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16" thickBot="1">
+      <c r="A17" s="59">
+        <v>16</v>
+      </c>
+      <c r="B17" s="86">
+        <v>45747</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="88">
+        <v>130000</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16" thickBot="1">
+      <c r="A18" s="53">
+        <v>17</v>
+      </c>
+      <c r="B18" s="86">
+        <v>45756</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="88">
+        <v>40780</v>
+      </c>
+      <c r="E18" s="63"/>
+      <c r="F18" s="116" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1">
+      <c r="A19" s="53">
+        <v>18</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1">
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="53">
         <v>11</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-    </row>
-    <row r="26" ht="15.75" spans="3:9">
-      <c r="C26" s="64" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="C26" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="64">
         <f>SUM(D2:D25)</f>
-        <v>3164936</v>
-      </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
+        <v>3702156</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView topLeftCell="A72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.8190476190476" style="41" customWidth="1"/>
-    <col min="2" max="2" width="17.6380952380952" style="41" customWidth="1"/>
-    <col min="3" max="3" width="9" style="41"/>
-    <col min="4" max="4" width="11" style="41" customWidth="1"/>
-    <col min="5" max="5" width="9" style="41"/>
-    <col min="6" max="6" width="12.8190476190476" style="41" customWidth="1"/>
-    <col min="8" max="8" width="12.8190476190476" customWidth="1"/>
-    <col min="10" max="10" width="12.6380952380952" customWidth="1"/>
-    <col min="16" max="16" width="11.0952380952381" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="9" style="34"/>
+    <col min="4" max="4" width="11" style="34" customWidth="1"/>
+    <col min="5" max="5" width="9" style="34"/>
+    <col min="6" max="6" width="12.81640625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+    <col min="16" max="16" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="H1" s="43" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="H1" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="44" t="s">
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="58" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="46">
+    <row r="3" spans="1:17">
+      <c r="A3" s="37">
         <v>45173</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="38">
         <v>24750</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="38">
         <v>25000</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="39">
         <v>45173</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="34">
         <v>24750</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="34">
         <v>25000</v>
       </c>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="46">
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="37">
         <v>45178</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="38">
         <v>29700</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="38">
         <v>30000</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="H4" s="49">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="94"/>
+      <c r="H4" s="39">
         <v>45178</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="34">
         <v>29700</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="34">
         <v>30000</v>
       </c>
-      <c r="K4" s="41"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="46">
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="37">
         <v>45185</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="38">
         <v>19800</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="38">
         <v>20000</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="H5" s="49">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="94"/>
+      <c r="H5" s="39">
         <v>45185</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="34">
         <v>19800</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="34">
         <v>20000</v>
       </c>
-      <c r="K5" s="41"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="46">
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="37">
         <v>45194</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="38">
         <v>49500</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="38">
         <v>50000</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="H6" s="49">
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="94"/>
+      <c r="H6" s="39">
         <v>45194</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="34">
         <v>49500</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="34">
         <v>50000</v>
       </c>
-      <c r="K6" s="41"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="46">
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="37">
         <v>45206</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="38">
         <v>39600</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="38">
         <v>40000</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="H7" s="49">
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="94"/>
+      <c r="H7" s="39">
         <v>45206</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="34">
         <v>39600</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="34">
         <v>40000</v>
       </c>
-      <c r="K7" s="41"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="46">
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="37">
         <v>45220</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="38">
         <v>49500</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="38">
         <v>50000</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="H8" s="49">
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="94"/>
+      <c r="H8" s="39">
         <v>45220</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="34">
         <v>49500</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="34">
         <v>50000</v>
       </c>
-      <c r="K8" s="41"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="50">
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="40">
         <v>45233</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="41">
         <v>39699</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="41">
         <v>40000</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="42">
         <v>45232</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="35">
         <v>40100</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="39">
         <v>45240</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="34">
         <v>99000</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="34">
         <v>100000</v>
       </c>
-      <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="46">
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="37">
         <v>45240</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="38">
         <v>99000</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="38">
         <v>100000</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="39">
         <v>45254</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="34">
         <v>24750</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="34">
         <v>25000</v>
       </c>
-      <c r="K10" s="41"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="46">
+      <c r="A11" s="37">
         <v>45254</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="38">
         <v>24750</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="38">
         <v>25000</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="H11" s="49">
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="94"/>
+      <c r="H11" s="39">
         <v>45257</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="34">
         <v>99000</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="34">
         <v>100000</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="N11" s="41">
+      <c r="K11" s="34"/>
+      <c r="N11" s="34">
         <v>25000</v>
       </c>
-      <c r="Q11" s="41">
+      <c r="Q11" s="34">
         <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="46">
+      <c r="A12" s="37">
         <v>45257</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="38">
         <v>99000</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="38">
         <v>100000</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="H12" s="49">
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="94"/>
+      <c r="H12" s="39">
         <v>45258</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="34">
         <v>24750</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="34">
         <v>25000</v>
       </c>
-      <c r="K12" s="41"/>
-      <c r="N12" s="41">
+      <c r="K12" s="34"/>
+      <c r="N12" s="34">
         <v>30000</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12" s="34">
         <v>20000</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="46">
+      <c r="A13" s="37">
         <v>45258</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="38">
         <v>24750</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="38">
         <v>25000</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="H13" s="49">
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="94"/>
+      <c r="H13" s="39">
         <v>45279</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="34">
         <v>49500</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="34">
         <v>50000</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="N13" s="41">
+      <c r="K13" s="34"/>
+      <c r="N13" s="34">
         <v>20000</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13" s="34">
         <v>25000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="46">
+      <c r="A14" s="37">
         <v>45279</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="38">
         <v>49500</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="38">
         <v>50000</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="H14" s="49">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="94"/>
+      <c r="H14" s="39">
         <v>45311</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="34">
         <v>24750</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="34">
         <v>25000</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="N14" s="41">
+      <c r="K14" s="34"/>
+      <c r="N14" s="34">
         <v>50000</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14" s="34">
         <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="46">
+      <c r="A15" s="37">
         <v>45311</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="38">
         <v>24750</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="38">
         <v>25000</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="H15" s="49">
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="94"/>
+      <c r="H15" s="39">
         <v>45334</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="34">
         <v>49500</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="34">
         <v>50000</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="N15" s="41">
+      <c r="K15" s="47"/>
+      <c r="N15" s="34">
         <v>40000</v>
       </c>
-      <c r="Q15" s="41">
+      <c r="Q15" s="34">
         <v>50000</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="54">
+      <c r="A16" s="44">
         <v>45334</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="34">
         <v>49500</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="34">
         <v>50000</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="39">
         <v>45346</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="34">
         <v>19800</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="34">
         <v>20000</v>
       </c>
-      <c r="K16" s="57"/>
-      <c r="N16" s="41">
+      <c r="K16" s="47"/>
+      <c r="N16" s="34">
         <v>50000</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="34">
         <v>50000</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="54">
+    <row r="17" spans="1:18">
+      <c r="A17" s="44">
         <v>45346</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="34">
         <v>19800</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="34">
         <v>20000</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="39">
         <v>45360</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="34">
         <v>24750</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="34">
         <v>25000</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="N17" s="41">
+      <c r="K17" s="47"/>
+      <c r="N17" s="34">
         <v>100000</v>
       </c>
-      <c r="Q17" s="41">
+      <c r="Q17" s="34">
         <v>25000</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="54">
+    <row r="18" spans="1:18">
+      <c r="A18" s="44">
         <v>45360</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="34">
         <v>24750</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="34">
         <v>25000</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="39">
         <v>45367</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="34">
         <v>99000</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="34">
         <v>100000</v>
       </c>
-      <c r="K18" s="57"/>
-      <c r="N18" s="41">
+      <c r="K18" s="47"/>
+      <c r="N18" s="34">
         <v>25000</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="34">
         <v>100000</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="54">
+    <row r="19" spans="1:18">
+      <c r="A19" s="44">
         <v>45367</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="34">
         <v>99000</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="34">
         <v>100000</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="39">
         <v>45374</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="34">
         <v>49500</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="34">
         <v>50000</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="N19" s="41">
+      <c r="K19" s="47"/>
+      <c r="N19" s="34">
         <v>100000</v>
       </c>
-      <c r="Q19" s="41">
+      <c r="Q19" s="34">
         <v>50000</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="54">
+    <row r="20" spans="1:18">
+      <c r="A20" s="44">
         <v>45374</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="34">
         <v>49500</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="34">
         <v>50000</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="39">
         <v>45373</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="34">
         <v>49500</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="34">
         <v>50000</v>
       </c>
-      <c r="K20" s="57"/>
-      <c r="N20" s="41">
+      <c r="K20" s="47"/>
+      <c r="N20" s="34">
         <v>25000</v>
       </c>
-      <c r="Q20" s="57">
+      <c r="Q20" s="47">
         <v>30000</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="54">
+    <row r="21" spans="1:18">
+      <c r="A21" s="44">
         <v>45373</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="34">
         <v>49500</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="34">
         <v>50000</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="39">
         <v>45388</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="34">
         <v>24750</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="34">
         <v>25000</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="N21" s="41">
+      <c r="K21" s="47"/>
+      <c r="N21" s="34">
         <v>50000</v>
       </c>
-      <c r="O21" s="59"/>
-      <c r="Q21" s="57">
+      <c r="O21" s="49"/>
+      <c r="Q21" s="47">
         <v>30000</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="54">
+    <row r="22" spans="1:18">
+      <c r="A22" s="44">
         <v>45388</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="34">
         <v>24750</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="34">
         <v>25000</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="39">
         <v>45395</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="34">
         <v>99000</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J22" s="34">
         <v>100000</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="N22" s="41">
+      <c r="K22" s="47"/>
+      <c r="N22" s="34">
         <v>25000</v>
       </c>
-      <c r="Q22" s="57">
+      <c r="Q22" s="47">
         <v>20000</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="54">
+    <row r="23" spans="1:18">
+      <c r="A23" s="44">
         <v>45395</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="34">
         <v>99000</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="34">
         <v>100000</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="39">
         <v>45398</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="34">
         <v>49500</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="34">
         <v>50000</v>
       </c>
-      <c r="K23" s="57"/>
+      <c r="K23" s="47"/>
       <c r="N23">
         <f>SUM(N11:N22)</f>
         <v>540000</v>
       </c>
-      <c r="Q23" s="57">
+      <c r="Q23" s="47">
         <v>150000</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="54">
+    <row r="24" spans="1:18">
+      <c r="A24" s="44">
         <v>45398</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="34">
         <v>49500</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="34">
         <v>50000</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="45">
         <v>45423</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="47">
         <v>29700</v>
       </c>
-      <c r="J24" s="57">
+      <c r="J24" s="47">
         <v>30000</v>
       </c>
-      <c r="K24" s="57"/>
-      <c r="Q24" s="57">
+      <c r="K24" s="47"/>
+      <c r="Q24" s="47">
         <v>50000</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="56">
+    <row r="25" spans="1:18">
+      <c r="A25" s="46">
         <v>45423</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="47">
         <v>29700</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="47">
         <v>30000</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="H25" s="55">
+      <c r="D25" s="47"/>
+      <c r="H25" s="45">
         <v>45430</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="47">
         <v>30000</v>
       </c>
-      <c r="J25" s="57">
+      <c r="J25" s="47">
         <v>30000</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="Q25" s="60">
+      <c r="K25" s="47"/>
+      <c r="Q25" s="50">
         <v>20000</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="56">
+      <c r="A26" s="46">
         <v>45430</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="47">
         <v>30000</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="47">
         <v>30000</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="H26" s="55">
+      <c r="D26" s="47"/>
+      <c r="H26" s="45">
         <v>45440</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="47">
         <v>20000</v>
       </c>
-      <c r="J26" s="57">
+      <c r="J26" s="47">
         <v>20000</v>
       </c>
-      <c r="K26" s="57"/>
-      <c r="N26" s="41">
+      <c r="K26" s="47"/>
+      <c r="N26" s="34">
         <v>25000</v>
       </c>
-      <c r="P26" s="47" t="s">
+      <c r="P26" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="Q26" s="47">
+      <c r="Q26" s="38">
         <f>SUM(Q11:Q25)</f>
         <v>770000</v>
       </c>
-      <c r="R26" s="41"/>
+      <c r="R26" s="34"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="56">
+      <c r="A27" s="46">
         <v>45440</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="47">
         <v>20000</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="47">
         <v>20000</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="H27" s="55">
+      <c r="D27" s="47"/>
+      <c r="H27" s="45">
         <v>45455</v>
       </c>
-      <c r="I27" s="57">
+      <c r="I27" s="47">
         <v>148500</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="47">
         <v>150000</v>
       </c>
-      <c r="K27" s="57"/>
-      <c r="N27" s="41">
+      <c r="K27" s="47"/>
+      <c r="N27" s="34">
         <v>100000</v>
       </c>
-      <c r="P27" s="41" t="s">
+      <c r="P27" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="Q27" s="41">
+      <c r="Q27" s="34">
         <v>260000</v>
       </c>
-      <c r="R27" s="41"/>
+      <c r="R27" s="34"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="56">
+      <c r="A28" s="46">
         <v>45455</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="47">
         <v>148500</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="47">
         <v>150000</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57">
+      <c r="D28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47">
         <f>SUM(I3:I27)</f>
         <v>1228100</v>
       </c>
-      <c r="J28" s="57">
+      <c r="J28" s="47">
         <f>SUM(J3:J27)</f>
         <v>1240000</v>
       </c>
-      <c r="K28" s="57"/>
-      <c r="N28" s="41">
+      <c r="K28" s="47"/>
+      <c r="N28" s="34">
         <v>50000</v>
       </c>
-      <c r="P28" s="41" t="s">
+      <c r="P28" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="Q28" s="41">
+      <c r="Q28" s="34">
         <v>447460</v>
       </c>
-      <c r="R28" s="41"/>
+      <c r="R28" s="34"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="56">
+      <c r="A29" s="46">
         <v>45458</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="34">
         <v>49500</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="47">
         <v>50000</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="N29" s="57">
+      <c r="D29" s="47"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="N29" s="47">
         <v>30000</v>
       </c>
-      <c r="P29" s="41" t="s">
+      <c r="P29" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="34">
         <v>62540</v>
       </c>
-      <c r="R29" s="41" t="s">
+      <c r="R29" s="34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="56">
+    <row r="30" spans="1:18">
+      <c r="A30" s="46">
         <v>45465</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57">
+      <c r="B30" s="47"/>
+      <c r="C30" s="47">
         <v>20000</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="N30" s="57">
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="N30" s="47">
         <v>30000</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="56">
+    <row r="31" spans="1:18">
+      <c r="A31" s="46">
         <v>45474</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="47">
         <v>19800</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="47">
         <v>20000</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="N31" s="57">
+      <c r="N31" s="47">
         <v>20000</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="54">
+    <row r="32" spans="1:18">
+      <c r="A32" s="44">
         <v>45479</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="34">
         <v>19800</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="34">
         <v>20000</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="47">
         <v>150000</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="54">
+      <c r="A33" s="44">
         <v>45488</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="34">
         <v>20000</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="34">
         <v>20000</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="N33" s="57">
+      <c r="N33" s="47">
         <v>50000</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="54">
+      <c r="A34" s="44">
         <v>45488</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="34">
         <v>100000</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="34">
         <v>100000</v>
       </c>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="N34" s="57">
+      <c r="N34" s="47">
         <v>20000</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="54">
+      <c r="A35" s="44">
         <v>45494</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="34">
         <v>19800</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="34">
         <v>20000</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="34" t="s">
         <v>47</v>
       </c>
       <c r="N35">
@@ -3443,564 +3252,704 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="54">
+    <row r="36" spans="1:14">
+      <c r="A36" s="44">
         <v>45500</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36" s="34">
         <v>19800</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="34">
         <v>20000</v>
       </c>
-      <c r="F36" s="41" t="s">
+      <c r="F36" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="54">
+    <row r="37" spans="1:14">
+      <c r="A37" s="44">
         <v>45507</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37" s="34">
         <v>19800</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="34">
         <v>20000</v>
       </c>
-      <c r="F37" s="41" t="s">
+      <c r="F37" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="54">
+    <row r="38" spans="1:14">
+      <c r="A38" s="44">
         <v>45513</v>
       </c>
-      <c r="B38" s="41">
+      <c r="B38" s="34">
         <v>39600</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="34">
         <v>40000</v>
       </c>
-      <c r="F38" s="41" t="s">
+      <c r="F38" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="54">
+    <row r="39" spans="1:14">
+      <c r="A39" s="44">
         <v>45518</v>
       </c>
-      <c r="B39" s="41">
+      <c r="B39" s="34">
         <v>99000</v>
       </c>
-      <c r="C39" s="41">
+      <c r="C39" s="34">
         <v>100000</v>
       </c>
-      <c r="F39" s="41" t="s">
+      <c r="F39" s="34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="54">
+    <row r="40" spans="1:14">
+      <c r="A40" s="44">
         <v>45523</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40" s="34">
         <v>19800</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="34">
         <v>20000</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="F40" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="54">
+    <row r="41" spans="1:14">
+      <c r="A41" s="44">
         <v>45524</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="34">
         <v>29700</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="34">
         <v>30000</v>
       </c>
-      <c r="F41" s="41" t="s">
+      <c r="F41" s="34" t="s">
         <v>48</v>
       </c>
       <c r="H41">
         <v>18760</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="54">
+    <row r="42" spans="1:14">
+      <c r="A42" s="44">
         <v>45530</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42" s="34">
         <v>19800</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="34">
         <v>20000</v>
       </c>
-      <c r="F42" s="41" t="s">
+      <c r="F42" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="54">
+    <row r="43" spans="1:14">
+      <c r="A43" s="44">
         <v>45535</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43" s="34">
         <v>19800</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43" s="34">
         <v>20000</v>
       </c>
-      <c r="F43" s="41" t="s">
+      <c r="F43" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="54">
+    <row r="44" spans="1:14">
+      <c r="A44" s="44">
         <v>45543</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44" s="34">
         <v>19800</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="34">
         <v>20000</v>
       </c>
-      <c r="F44" s="41" t="s">
+      <c r="F44" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="54">
+    <row r="45" spans="1:14">
+      <c r="A45" s="44">
         <v>45550</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45" s="34">
         <v>19800</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="34">
         <v>20000</v>
       </c>
-      <c r="F45" s="41" t="s">
+      <c r="F45" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="54">
+    <row r="46" spans="1:14">
+      <c r="A46" s="44">
         <v>45551</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46" s="34">
         <v>99000</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="34">
         <v>100000</v>
       </c>
-      <c r="F46" s="41" t="s">
+      <c r="F46" s="34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="54">
+    <row r="47" spans="1:14">
+      <c r="A47" s="44">
         <v>45556</v>
       </c>
-      <c r="B47" s="41">
+      <c r="B47" s="34">
         <v>19800</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="34">
         <v>20000</v>
       </c>
-      <c r="F47" s="41" t="s">
+      <c r="F47" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" s="40" customFormat="1" spans="1:6">
-      <c r="A48" s="54">
+    <row r="48" spans="1:14" s="33" customFormat="1">
+      <c r="A48" s="44">
         <v>45557</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48" s="34">
         <v>69300</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="34">
         <v>70000</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41" t="s">
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="54">
+    <row r="49" spans="1:11">
+      <c r="A49" s="44">
         <v>45567</v>
       </c>
-      <c r="B49" s="41">
+      <c r="B49" s="34">
         <v>29700</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="34">
         <v>30000</v>
       </c>
-      <c r="F49" s="41" t="s">
+      <c r="F49" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="54">
+    <row r="50" spans="1:11">
+      <c r="A50" s="44">
         <v>45570</v>
       </c>
-      <c r="B50" s="41">
+      <c r="B50" s="34">
         <v>19800</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50" s="34">
         <v>20000</v>
       </c>
-      <c r="F50" s="41" t="s">
+      <c r="F50" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="54">
+    <row r="51" spans="1:11">
+      <c r="A51" s="44">
         <v>45579</v>
       </c>
-      <c r="B51" s="41">
+      <c r="B51" s="34">
         <v>99000</v>
       </c>
-      <c r="C51" s="41">
+      <c r="C51" s="34">
         <v>100000</v>
       </c>
-      <c r="F51" s="41" t="s">
+      <c r="F51" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="54">
+    <row r="52" spans="1:11">
+      <c r="A52" s="44">
         <v>45586</v>
       </c>
-      <c r="B52" s="41">
+      <c r="B52" s="34">
         <v>19800</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="34">
         <v>20000</v>
       </c>
-      <c r="F52" s="41" t="s">
+      <c r="F52" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="54">
+    <row r="53" spans="1:11">
+      <c r="A53" s="44">
         <v>45589</v>
       </c>
-      <c r="B53" s="41">
+      <c r="B53" s="34">
         <v>198000</v>
       </c>
-      <c r="C53" s="41">
+      <c r="C53" s="34">
         <v>200000</v>
       </c>
-      <c r="F53" s="41" t="s">
+      <c r="F53" s="34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="54">
+    <row r="54" spans="1:11">
+      <c r="A54" s="44">
         <v>45606</v>
       </c>
-      <c r="B54" s="41">
+      <c r="B54" s="34">
         <v>19800</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="34">
         <v>20000</v>
       </c>
-      <c r="F54" s="41" t="s">
+      <c r="F54" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="54">
+    <row r="55" spans="1:11">
+      <c r="A55" s="44">
         <v>45610</v>
       </c>
-      <c r="B55" s="41">
+      <c r="B55" s="34">
         <v>19800</v>
       </c>
-      <c r="C55" s="41">
+      <c r="C55" s="34">
         <v>20000</v>
       </c>
-      <c r="F55" s="41" t="s">
+      <c r="F55" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="54">
+    <row r="56" spans="1:11">
+      <c r="A56" s="44">
         <v>45613</v>
       </c>
-      <c r="B56" s="41">
+      <c r="B56" s="34">
         <v>29700</v>
       </c>
-      <c r="C56" s="41">
+      <c r="C56" s="34">
         <v>30000</v>
       </c>
-      <c r="F56" s="41" t="s">
+      <c r="F56" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="54">
+    <row r="57" spans="1:11">
+      <c r="A57" s="44">
         <v>45619</v>
       </c>
-      <c r="B57" s="41">
+      <c r="B57" s="34">
         <v>29700</v>
       </c>
-      <c r="C57" s="41">
+      <c r="C57" s="34">
         <v>30000</v>
       </c>
-      <c r="F57" s="41" t="s">
+      <c r="F57" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="54">
+    <row r="58" spans="1:11">
+      <c r="A58" s="44">
         <v>45626</v>
       </c>
-      <c r="B58" s="41">
+      <c r="B58" s="34">
         <v>19800</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="34">
         <v>20000</v>
       </c>
-      <c r="F58" s="41" t="s">
+      <c r="F58" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="54">
+    <row r="59" spans="1:11">
+      <c r="A59" s="44">
         <v>45633</v>
       </c>
-      <c r="B59" s="41">
+      <c r="B59" s="34">
         <v>19800</v>
       </c>
-      <c r="C59" s="41">
+      <c r="C59" s="34">
         <v>20000</v>
       </c>
-      <c r="F59" s="41" t="s">
+      <c r="F59" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="54">
+    <row r="60" spans="1:11">
+      <c r="A60" s="44">
         <v>45634</v>
       </c>
-      <c r="B60" s="41">
+      <c r="B60" s="34">
         <v>99000</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="34">
         <v>100000</v>
       </c>
-      <c r="F60" s="41" t="s">
+      <c r="F60" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="54">
+    <row r="61" spans="1:11">
+      <c r="A61" s="44">
         <v>45640</v>
       </c>
-      <c r="B61" s="41">
+      <c r="B61" s="34">
         <v>29700</v>
       </c>
-      <c r="C61" s="41">
+      <c r="C61" s="34">
         <v>30000</v>
       </c>
-      <c r="F61" s="41" t="s">
+      <c r="F61" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="54">
+    <row r="62" spans="1:11">
+      <c r="A62" s="44">
         <v>45647</v>
       </c>
-      <c r="B62" s="41">
+      <c r="B62" s="34">
         <v>19800</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="34">
         <v>20000</v>
       </c>
-      <c r="F62" s="41" t="s">
+      <c r="F62" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="54">
+    <row r="63" spans="1:11">
+      <c r="A63" s="44">
         <v>45654</v>
       </c>
-      <c r="B63" s="41">
+      <c r="B63" s="34">
         <v>39600</v>
       </c>
-      <c r="C63" s="41">
+      <c r="C63" s="34">
         <v>40000</v>
       </c>
-      <c r="F63" s="41" t="s">
+      <c r="F63" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="54">
+      <c r="A64" s="44">
         <v>45661</v>
       </c>
-      <c r="B64" s="41">
+      <c r="B64" s="34">
         <v>19800</v>
       </c>
-      <c r="C64" s="41">
+      <c r="C64" s="34">
         <v>20000</v>
       </c>
-      <c r="F64" s="41" t="s">
+      <c r="F64" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K64" s="41">
+      <c r="K64" s="34">
         <v>20000</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="54">
+      <c r="A65" s="44">
         <v>45668</v>
       </c>
-      <c r="B65" s="41">
+      <c r="B65" s="34">
         <v>19800</v>
       </c>
-      <c r="C65" s="41">
+      <c r="C65" s="34">
         <v>20000</v>
       </c>
-      <c r="F65" s="41" t="s">
+      <c r="F65" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K65" s="41">
+      <c r="K65" s="34">
         <v>20000</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="54">
+      <c r="A66" s="44">
         <v>45670</v>
       </c>
-      <c r="B66" s="41">
+      <c r="B66" s="34">
         <v>148500</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66" s="34">
         <v>150000</v>
       </c>
-      <c r="F66" s="41" t="s">
+      <c r="F66" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="K66" s="41">
+      <c r="K66" s="34">
         <v>150000</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="54">
+      <c r="A67" s="44">
         <v>45677</v>
       </c>
-      <c r="B67" s="41">
+      <c r="B67" s="34">
         <v>19800</v>
       </c>
-      <c r="C67" s="41">
+      <c r="C67" s="34">
         <v>20000</v>
       </c>
-      <c r="F67" s="41" t="s">
+      <c r="F67" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K67" s="41">
+      <c r="K67" s="34">
         <v>20000</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="54">
+      <c r="A68" s="44">
         <v>45682</v>
       </c>
-      <c r="B68" s="41">
+      <c r="B68" s="34">
         <v>29700</v>
       </c>
-      <c r="C68" s="41">
+      <c r="C68" s="34">
         <v>30000</v>
       </c>
-      <c r="F68" s="41" t="s">
+      <c r="F68" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K68" s="41">
+      <c r="K68" s="34">
         <v>30000</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="54">
+      <c r="A69" s="44">
         <v>45689</v>
       </c>
-      <c r="B69" s="41">
+      <c r="B69" s="34">
         <v>19800</v>
       </c>
-      <c r="C69" s="41">
+      <c r="C69" s="34">
         <v>20000</v>
       </c>
-      <c r="F69" s="41" t="s">
+      <c r="F69" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K69" s="41">
+      <c r="K69" s="34">
         <v>20000</v>
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="54">
+      <c r="A70" s="44">
         <v>45694</v>
       </c>
-      <c r="B70" s="41">
+      <c r="B70" s="34">
         <v>99000</v>
       </c>
-      <c r="C70" s="41">
+      <c r="C70" s="34">
         <v>100000</v>
       </c>
-      <c r="F70" s="41" t="s">
+      <c r="F70" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="K70" s="41">
+      <c r="K70" s="34">
         <v>100000</v>
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="54">
+      <c r="A71" s="44">
         <v>45698</v>
       </c>
-      <c r="B71" s="41">
+      <c r="B71" s="34">
         <v>49500</v>
       </c>
-      <c r="C71" s="41">
+      <c r="C71" s="34">
         <v>50000</v>
       </c>
-      <c r="F71" s="41" t="s">
+      <c r="F71" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="K71" s="41">
+      <c r="K71" s="34">
         <v>50000</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="54"/>
-      <c r="K72" s="63">
+      <c r="A72" s="44">
+        <v>45703</v>
+      </c>
+      <c r="B72" s="34">
+        <v>19800</v>
+      </c>
+      <c r="C72" s="34">
+        <v>20000</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="K72">
         <f>SUM(K64:K71)</f>
         <v>410000</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="54"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="61"/>
-      <c r="B75" s="61">
-        <f>SUM(B3:B73)</f>
-        <v>3090599</v>
-      </c>
-      <c r="C75" s="61">
-        <f>SUM(C3:C73)</f>
-        <v>3140000</v>
-      </c>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
+    <row r="73" spans="1:11">
+      <c r="A73" s="44">
+        <v>45710</v>
+      </c>
+      <c r="B73" s="34">
+        <v>49500</v>
+      </c>
+      <c r="C73" s="34">
+        <v>50000</v>
+      </c>
+      <c r="F73" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="44">
+        <v>45715</v>
+      </c>
+      <c r="B74" s="34">
+        <v>49500</v>
+      </c>
+      <c r="C74" s="34">
+        <v>50000</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="44">
+        <v>45717</v>
+      </c>
+      <c r="B75" s="34">
+        <v>19800</v>
+      </c>
+      <c r="C75" s="34">
+        <v>20000</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="44">
+        <v>45724</v>
+      </c>
+      <c r="B76" s="34">
+        <v>19800</v>
+      </c>
+      <c r="C76" s="34">
+        <v>20000</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="44">
+        <v>45729</v>
+      </c>
+      <c r="B77" s="34">
+        <v>150000</v>
+      </c>
+      <c r="C77" s="34">
+        <v>150000</v>
+      </c>
+      <c r="F77" t="s">
+        <v>196</v>
+      </c>
+      <c r="G77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="44">
+        <v>45737</v>
+      </c>
+      <c r="B78" s="34">
+        <v>29700</v>
+      </c>
+      <c r="C78" s="34">
+        <v>30000</v>
+      </c>
+      <c r="F78" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="44">
+        <v>45749</v>
+      </c>
+      <c r="B79" s="34">
+        <v>19800</v>
+      </c>
+      <c r="C79" s="34">
+        <v>20000</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="44">
+        <v>45752</v>
+      </c>
+      <c r="B80" s="34">
+        <v>19800</v>
+      </c>
+      <c r="C80" s="34">
+        <v>20000</v>
+      </c>
+      <c r="F80" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="44">
+        <v>45759</v>
+      </c>
+      <c r="B81" s="34">
+        <v>19800</v>
+      </c>
+      <c r="C81" s="34">
+        <v>20000</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="44"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="51"/>
+      <c r="B84" s="51">
+        <f>SUM(B3:B83)</f>
+        <v>3488099</v>
+      </c>
+      <c r="C84" s="51">
+        <f>SUM(C3:C83)</f>
+        <v>3540000</v>
+      </c>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4010,29 +3959,27 @@
     <mergeCell ref="F10:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K206"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127:B129"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="45.0952380952381" customWidth="1"/>
-    <col min="3" max="3" width="13.8190476190476" customWidth="1"/>
-    <col min="4" max="4" width="15.9047619047619" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" customWidth="1"/>
+    <col min="2" max="2" width="58.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -4049,7 +3996,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="19.5" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4066,7 +4013,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4083,7 +4030,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="19.5" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4100,7 +4047,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="19.5" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4117,7 +4064,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="19.5" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4134,7 +4081,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="19.5" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4151,7 +4098,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="19.5" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4168,7 +4115,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="19.5" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4185,7 +4132,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="19.5" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4202,7 +4149,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="19.5" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4219,46 +4166,46 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11">
+      <c r="D12" s="101"/>
+      <c r="E12" s="9">
         <f>SUM(E2:E11)</f>
         <v>800000</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9" t="s">
+    <row r="13" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A13" s="97"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11">
+      <c r="D13" s="101"/>
+      <c r="E13" s="9">
         <v>540000</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="9" t="s">
+    <row r="14" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11">
+      <c r="D14" s="101"/>
+      <c r="E14" s="9">
         <v>260000</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:1">
+    <row r="16" spans="1:5" ht="19.5" customHeight="1">
       <c r="A16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:5">
+    <row r="17" spans="1:11" ht="19.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -4275,7 +4222,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:5">
+    <row r="18" spans="1:11" ht="19.5" customHeight="1">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -4292,7 +4239,7 @@
         <v>55800</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:5">
+    <row r="19" spans="1:11" ht="19.5" customHeight="1">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -4309,7 +4256,7 @@
         <v>27600</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:5">
+    <row r="20" spans="1:11" ht="19.5" customHeight="1">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -4326,7 +4273,7 @@
         <v>55800</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:5">
+    <row r="21" spans="1:11" ht="19.5" customHeight="1">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -4343,7 +4290,7 @@
         <v>27600</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:5">
+    <row r="22" spans="1:11" ht="19.5" customHeight="1">
       <c r="A22" s="3">
         <v>5</v>
       </c>
@@ -4360,7 +4307,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:5">
+    <row r="23" spans="1:11" ht="19.5" customHeight="1">
       <c r="A23" s="3">
         <v>6</v>
       </c>
@@ -4377,7 +4324,7 @@
         <v>27900</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:5">
+    <row r="24" spans="1:11" ht="19.5" customHeight="1">
       <c r="A24" s="3">
         <v>7</v>
       </c>
@@ -4394,7 +4341,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:5">
+    <row r="25" spans="1:11" ht="19.5" customHeight="1">
       <c r="A25" s="3">
         <v>8</v>
       </c>
@@ -4411,7 +4358,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:5">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1">
       <c r="A26" s="3">
         <v>9</v>
       </c>
@@ -4426,7 +4373,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:5">
+    <row r="27" spans="1:11" ht="19.5" customHeight="1">
       <c r="A27" s="3">
         <v>10</v>
       </c>
@@ -4443,7 +4390,7 @@
         <v>32300</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:5">
+    <row r="28" spans="1:11" ht="19.5" customHeight="1">
       <c r="A28" s="3">
         <v>11</v>
       </c>
@@ -4460,7 +4407,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:5">
+    <row r="29" spans="1:11" ht="19.5" customHeight="1">
       <c r="A29" s="3">
         <v>12</v>
       </c>
@@ -4477,7 +4424,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:5">
+    <row r="30" spans="1:11" ht="19.5" customHeight="1">
       <c r="A30" s="3">
         <v>13</v>
       </c>
@@ -4494,7 +4441,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:11">
+    <row r="31" spans="1:11" ht="19.5" customHeight="1">
       <c r="A31" s="3">
         <v>14</v>
       </c>
@@ -4514,14 +4461,14 @@
         <v>328000</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:11">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9" t="s">
+    <row r="32" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11">
+      <c r="D32" s="101"/>
+      <c r="E32" s="9">
         <f>SUM(E18:E31)</f>
         <v>447460</v>
       </c>
@@ -4529,14 +4476,14 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:11">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="9" t="s">
+    <row r="33" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A33" s="97"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11">
+      <c r="D33" s="101"/>
+      <c r="E33" s="9">
         <v>0</v>
       </c>
       <c r="K33">
@@ -4544,32 +4491,32 @@
         <v>568000</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:11">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="9" t="s">
+    <row r="34" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11">
+      <c r="D34" s="101"/>
+      <c r="E34" s="9">
         <v>447460</v>
       </c>
       <c r="K34">
         <v>40000</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="11:11">
+    <row r="35" spans="1:11" ht="19.5" customHeight="1">
       <c r="K35">
         <v>345600</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="11:11">
+    <row r="36" spans="1:11" ht="19.5" customHeight="1">
       <c r="K36">
         <f>SUM(K33:K35)</f>
         <v>953600</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:5">
+    <row r="38" spans="1:11" ht="19.5" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
@@ -4586,11 +4533,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" ht="31" customHeight="1" spans="1:9">
+    <row r="39" spans="1:11" ht="31" customHeight="1">
       <c r="A39" s="3">
         <v>1</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -4602,15 +4549,15 @@
       <c r="E39" s="7">
         <v>58080</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" ht="31" customHeight="1" spans="1:9">
+    <row r="40" spans="1:11" ht="31" customHeight="1">
       <c r="A40" s="3">
         <v>2</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -4622,15 +4569,15 @@
       <c r="E40" s="7">
         <v>58080</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" ht="33" customHeight="1" spans="1:9">
+    <row r="41" spans="1:11" ht="33" customHeight="1">
       <c r="A41" s="3">
         <v>3</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -4642,15 +4589,15 @@
       <c r="E41" s="7">
         <v>58080</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" ht="30" customHeight="1" spans="1:9">
+    <row r="42" spans="1:11" ht="30" customHeight="1">
       <c r="A42" s="3">
         <v>4</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -4662,15 +4609,15 @@
       <c r="E42" s="7">
         <v>58080</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:5">
+    <row r="43" spans="1:11" ht="19.5" customHeight="1">
       <c r="A43" s="3">
         <v>9</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="11" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -4683,11 +4630,11 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:5">
+    <row r="44" spans="1:11" ht="19.5" customHeight="1">
       <c r="A44" s="3">
         <v>10</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="11" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -4700,11 +4647,11 @@
         <v>64889</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:5">
+    <row r="45" spans="1:11" ht="19.5" customHeight="1">
       <c r="A45" s="3">
         <v>11</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -4717,11 +4664,11 @@
         <v>64889</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:5">
+    <row r="46" spans="1:11" ht="19.5" customHeight="1">
       <c r="A46" s="3">
         <v>12</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -4734,11 +4681,11 @@
         <v>64889</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:5">
+    <row r="47" spans="1:11" ht="19.5" customHeight="1">
       <c r="A47" s="3">
         <v>13</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -4751,7 +4698,7 @@
         <v>64889</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:5">
+    <row r="48" spans="1:11" ht="19.5" customHeight="1">
       <c r="A48" s="3">
         <v>14</v>
       </c>
@@ -4760,178 +4707,178 @@
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" customHeight="1" spans="1:5">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9" t="s">
+    <row r="49" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A49" s="96"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11">
+      <c r="D49" s="101"/>
+      <c r="E49" s="9">
         <f>SUM(E39:E48)</f>
         <v>571876</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:5">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="9" t="s">
+    <row r="50" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A50" s="97"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11">
+      <c r="D50" s="101"/>
+      <c r="E50" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="9" t="s">
+    <row r="51" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A51" s="98"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11">
+      <c r="D51" s="101"/>
+      <c r="E51" s="9">
         <v>571876</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="16" t="s">
+    <row r="54" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A54" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="18">
+    <row r="55" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A55" s="14">
         <v>1</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="16">
         <v>45240</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55" s="18">
         <v>400000</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="18">
+    <row r="56" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A56" s="14">
         <v>2</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="16">
         <v>44968</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="18">
         <v>40100</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="18">
+    <row r="57" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A57" s="14">
         <v>3</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57" s="18">
         <v>400000</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="18">
+    <row r="58" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A58" s="14">
         <v>4</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="16">
         <v>45358</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="19">
         <v>447460</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="18">
+    <row r="59" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A59" s="14">
         <v>5</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="16">
         <v>45358</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="19">
         <v>571876</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="9" t="s">
+    <row r="60" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A60" s="96"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11">
+      <c r="D60" s="101"/>
+      <c r="E60" s="9">
         <f>SUM(E55:E59)</f>
         <v>1859436</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="9" t="s">
+    <row r="61" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A61" s="97"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11">
+      <c r="D61" s="101"/>
+      <c r="E61" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="9" t="s">
+    <row r="62" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A62" s="98"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11">
+      <c r="D62" s="101"/>
+      <c r="E62" s="9">
         <f>SUM(E60-E61)</f>
         <v>1859436</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:2">
+    <row r="64" spans="1:5" ht="19.5" customHeight="1">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -4939,7 +4886,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:5">
+    <row r="65" spans="1:5" ht="19.5" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>50</v>
       </c>
@@ -4956,31 +4903,31 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" ht="31" customHeight="1" spans="1:5">
+    <row r="66" spans="1:5" ht="31" customHeight="1">
       <c r="A66" s="3">
         <v>1</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="24">
+      <c r="E66" s="108">
         <v>48500</v>
       </c>
     </row>
-    <row r="67" ht="28" customHeight="1" spans="1:5">
+    <row r="67" spans="1:5" ht="28" customHeight="1">
       <c r="A67" s="3">
         <v>2</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="24"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:5">
+      <c r="E67" s="108"/>
+    </row>
+    <row r="68" spans="1:5" ht="19.5" customHeight="1">
       <c r="A68" s="3">
         <v>3</v>
       </c>
@@ -4991,44 +4938,44 @@
         <v>116</v>
       </c>
       <c r="D68" s="6"/>
-      <c r="E68" s="25"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9" t="s">
+      <c r="E68" s="109"/>
+    </row>
+    <row r="69" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A69" s="96"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11">
+      <c r="D69" s="101"/>
+      <c r="E69" s="9">
         <f>SUM(E66:E68)</f>
         <v>48500</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="9" t="s">
+    <row r="70" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A70" s="97"/>
+      <c r="B70" s="97"/>
+      <c r="C70" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11">
+      <c r="D70" s="101"/>
+      <c r="E70" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="9" t="s">
+    <row r="71" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A71" s="98"/>
+      <c r="B71" s="98"/>
+      <c r="C71" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11">
+      <c r="D71" s="101"/>
+      <c r="E71" s="9">
         <f>SUM(E69-E70)</f>
         <v>48500</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:2">
+    <row r="73" spans="1:5" ht="19.5" customHeight="1">
       <c r="A73" t="s">
         <v>117</v>
       </c>
@@ -5036,7 +4983,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:5">
+    <row r="74" spans="1:5" ht="19.5" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>50</v>
       </c>
@@ -5053,142 +5000,142 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="26">
+    <row r="75" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A75" s="20">
         <v>1</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="21" t="s">
         <v>119</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="24">
+      <c r="E75" s="108">
         <v>40000</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="26">
+    <row r="76" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A76" s="20">
         <v>2</v>
       </c>
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="21" t="s">
         <v>120</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="24"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="26">
+      <c r="E76" s="108"/>
+    </row>
+    <row r="77" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A77" s="20">
         <v>3</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="22" t="s">
         <v>121</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>122</v>
       </c>
       <c r="D77" s="6"/>
-      <c r="E77" s="24"/>
-    </row>
-    <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="29">
+      <c r="E77" s="108"/>
+    </row>
+    <row r="78" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A78" s="23">
         <v>4</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="24"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="29">
+      <c r="D78" s="25"/>
+      <c r="E78" s="108"/>
+    </row>
+    <row r="79" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A79" s="23">
         <v>5</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="24"/>
-    </row>
-    <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="29">
+      <c r="C79" s="25"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="108"/>
+    </row>
+    <row r="80" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A80" s="23">
         <v>6</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D80" s="33"/>
-      <c r="E80" s="24"/>
-    </row>
-    <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="29">
+      <c r="D80" s="27"/>
+      <c r="E80" s="108"/>
+    </row>
+    <row r="81" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A81" s="23">
         <v>7</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D81" s="33"/>
-      <c r="E81" s="24"/>
-    </row>
-    <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="29">
+      <c r="D81" s="27"/>
+      <c r="E81" s="108"/>
+    </row>
+    <row r="82" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A82" s="23">
         <v>8</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D82" s="33"/>
-      <c r="E82" s="24"/>
-    </row>
-    <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9" t="s">
+      <c r="D82" s="27"/>
+      <c r="E82" s="108"/>
+    </row>
+    <row r="83" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A83" s="96"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11">
+      <c r="D83" s="101"/>
+      <c r="E83" s="9">
         <f>SUM(E75:E77)</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="9" t="s">
+    <row r="84" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A84" s="97"/>
+      <c r="B84" s="97"/>
+      <c r="C84" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11">
+      <c r="D84" s="101"/>
+      <c r="E84" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="9" t="s">
+    <row r="85" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A85" s="98"/>
+      <c r="B85" s="98"/>
+      <c r="C85" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11">
+      <c r="D85" s="101"/>
+      <c r="E85" s="9">
         <f>SUM(E83-E84)</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:2">
+    <row r="88" spans="1:5" ht="19.5" customHeight="1">
       <c r="A88" t="s">
         <v>132</v>
       </c>
@@ -5196,7 +5143,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:5">
+    <row r="89" spans="1:5" ht="19.5" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>50</v>
       </c>
@@ -5213,68 +5160,68 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:5">
+    <row r="90" spans="1:5" ht="19.5" customHeight="1">
       <c r="A90" s="3">
         <v>1</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="34">
+      <c r="E90" s="28">
         <v>6000</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:5">
+    <row r="91" spans="1:5" ht="19.5" customHeight="1">
       <c r="A91" s="3">
         <v>2</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="35">
+      <c r="E91" s="29">
         <v>8000</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="9" t="s">
+    <row r="92" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A92" s="96"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11">
+      <c r="D92" s="101"/>
+      <c r="E92" s="9">
         <f>SUM(E90:E91)</f>
         <v>14000</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="9" t="s">
+    <row r="93" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A93" s="97"/>
+      <c r="B93" s="97"/>
+      <c r="C93" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11">
+      <c r="D93" s="101"/>
+      <c r="E93" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:5">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="9" t="s">
+    <row r="94" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A94" s="98"/>
+      <c r="B94" s="98"/>
+      <c r="C94" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D94" s="10"/>
-      <c r="E94" s="11">
+      <c r="D94" s="101"/>
+      <c r="E94" s="9">
         <f>SUM(E92-E93)</f>
         <v>14000</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:2">
+    <row r="97" spans="1:5" ht="19.5" customHeight="1">
       <c r="A97" t="s">
         <v>135</v>
       </c>
@@ -5282,7 +5229,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:5">
+    <row r="98" spans="1:5" ht="19.5" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>50</v>
       </c>
@@ -5299,68 +5246,68 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:5">
+    <row r="99" spans="1:5" ht="19.5" customHeight="1">
       <c r="A99" s="3">
         <v>1</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="34">
+      <c r="E99" s="28">
         <v>6000</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:5">
+    <row r="100" spans="1:5" ht="19.5" customHeight="1">
       <c r="A100" s="3">
         <v>2</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="34">
+      <c r="E100" s="28">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:5">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="9" t="s">
+    <row r="101" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A101" s="96"/>
+      <c r="B101" s="96"/>
+      <c r="C101" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="11">
+      <c r="D101" s="101"/>
+      <c r="E101" s="9">
         <f>SUM(E99:E100)</f>
         <v>14000</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:5">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="9" t="s">
+    <row r="102" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A102" s="97"/>
+      <c r="B102" s="97"/>
+      <c r="C102" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D102" s="10"/>
-      <c r="E102" s="11">
+      <c r="D102" s="101"/>
+      <c r="E102" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:5">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="9" t="s">
+    <row r="103" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A103" s="98"/>
+      <c r="B103" s="98"/>
+      <c r="C103" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="11">
+      <c r="D103" s="101"/>
+      <c r="E103" s="9">
         <f>SUM(E101-E102)</f>
         <v>14000</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:2">
+    <row r="105" spans="1:5" ht="19.5" customHeight="1">
       <c r="A105" t="s">
         <v>136</v>
       </c>
@@ -5368,7 +5315,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:5">
+    <row r="106" spans="1:5" ht="19.5" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>50</v>
       </c>
@@ -5381,80 +5328,80 @@
       <c r="D106" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E106" s="17" t="s">
+      <c r="E106" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="1:5">
+    <row r="107" spans="1:5" ht="19.5" customHeight="1">
       <c r="A107" s="3">
         <v>1</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="11" t="s">
         <v>138</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D107" s="36">
+      <c r="D107" s="30">
         <v>620</v>
       </c>
-      <c r="E107" s="37">
+      <c r="E107" s="31">
         <v>13020</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:5">
+    <row r="108" spans="1:5" ht="19.5" customHeight="1">
       <c r="A108" s="3">
         <v>2</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="11" t="s">
         <v>140</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D108" s="36">
+      <c r="D108" s="30">
         <v>320</v>
       </c>
-      <c r="E108" s="37">
+      <c r="E108" s="31">
         <v>3072</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:5">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="9" t="s">
+    <row r="109" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A109" s="96"/>
+      <c r="B109" s="96"/>
+      <c r="C109" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="39">
+      <c r="D109" s="100"/>
+      <c r="E109" s="32">
         <f>SUM(E107:E108)</f>
         <v>16092</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="1:5">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="9" t="s">
+    <row r="110" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A110" s="97"/>
+      <c r="B110" s="97"/>
+      <c r="C110" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D110" s="10"/>
-      <c r="E110" s="11">
+      <c r="D110" s="101"/>
+      <c r="E110" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:5">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="9" t="s">
+    <row r="111" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A111" s="98"/>
+      <c r="B111" s="98"/>
+      <c r="C111" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D111" s="10"/>
-      <c r="E111" s="11">
+      <c r="D111" s="101"/>
+      <c r="E111" s="9">
         <f>SUM(E109-E110)</f>
         <v>16092</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:2">
+    <row r="114" spans="1:5" ht="19.5" customHeight="1">
       <c r="A114" t="s">
         <v>142</v>
       </c>
@@ -5462,7 +5409,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:5">
+    <row r="115" spans="1:5" ht="19.5" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>50</v>
       </c>
@@ -5475,80 +5422,80 @@
       <c r="D115" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E115" s="17" t="s">
+      <c r="E115" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:5">
+    <row r="116" spans="1:5" ht="19.5" customHeight="1">
       <c r="A116" s="3">
         <v>1</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="11" t="s">
         <v>138</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D116" s="36">
+      <c r="D116" s="30">
         <v>620</v>
       </c>
-      <c r="E116" s="37">
+      <c r="E116" s="31">
         <v>20460</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:5">
+    <row r="117" spans="1:5" ht="19.5" customHeight="1">
       <c r="A117" s="3">
         <v>2</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="11" t="s">
         <v>140</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D117" s="36">
+      <c r="D117" s="30">
         <v>320</v>
       </c>
-      <c r="E117" s="37">
+      <c r="E117" s="31">
         <v>4928</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:5">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="9" t="s">
+    <row r="118" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A118" s="96"/>
+      <c r="B118" s="96"/>
+      <c r="C118" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D118" s="38"/>
-      <c r="E118" s="39">
+      <c r="D118" s="100"/>
+      <c r="E118" s="32">
         <f>SUM(E116:E117)</f>
         <v>25388</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:5">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="9" t="s">
+    <row r="119" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A119" s="97"/>
+      <c r="B119" s="97"/>
+      <c r="C119" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11">
+      <c r="D119" s="101"/>
+      <c r="E119" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:5">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="9" t="s">
+    <row r="120" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A120" s="98"/>
+      <c r="B120" s="98"/>
+      <c r="C120" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D120" s="10"/>
-      <c r="E120" s="11">
+      <c r="D120" s="101"/>
+      <c r="E120" s="9">
         <f>SUM(E118-E119)</f>
         <v>25388</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:2">
+    <row r="123" spans="1:5" ht="19.5" customHeight="1">
       <c r="A123" t="s">
         <v>145</v>
       </c>
@@ -5556,7 +5503,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:5">
+    <row r="124" spans="1:5" ht="19.5" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>50</v>
       </c>
@@ -5569,81 +5516,1095 @@
       <c r="D124" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E124" s="17" t="s">
+      <c r="E124" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:5">
+    <row r="125" spans="1:5" ht="19.5" customHeight="1">
       <c r="A125" s="3">
         <v>1</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="11" t="s">
         <v>138</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D125" s="36">
+      <c r="D125" s="30">
         <v>620</v>
       </c>
-      <c r="E125" s="37">
+      <c r="E125" s="31">
         <v>20150</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:5">
+    <row r="126" spans="1:5" ht="19.5" customHeight="1">
       <c r="A126" s="3">
         <v>2</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="11" t="s">
         <v>140</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D126" s="36">
+      <c r="D126" s="30">
         <v>320</v>
       </c>
-      <c r="E126" s="37">
+      <c r="E126" s="31">
         <v>5952</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:5">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="9" t="s">
+    <row r="127" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A127" s="96"/>
+      <c r="B127" s="96"/>
+      <c r="C127" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D127" s="38"/>
-      <c r="E127" s="39">
+      <c r="D127" s="100"/>
+      <c r="E127" s="32">
         <f>SUM(E125:E126)</f>
         <v>26102</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:5">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="9" t="s">
+    <row r="128" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A128" s="97"/>
+      <c r="B128" s="97"/>
+      <c r="C128" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D128" s="10"/>
-      <c r="E128" s="11">
+      <c r="D128" s="101"/>
+      <c r="E128" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:5">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="9" t="s">
+    <row r="129" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A129" s="98"/>
+      <c r="B129" s="98"/>
+      <c r="C129" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D129" s="10"/>
-      <c r="E129" s="11">
+      <c r="D129" s="101"/>
+      <c r="E129" s="9">
         <f>SUM(E127-E128)</f>
         <v>26102</v>
       </c>
     </row>
+    <row r="132" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A132" s="66">
+        <v>45747</v>
+      </c>
+      <c r="B132" t="s">
+        <v>148</v>
+      </c>
+      <c r="C132" s="72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A133" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A134" s="67">
+        <v>1</v>
+      </c>
+      <c r="B134" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" s="69">
+        <v>141.1</v>
+      </c>
+      <c r="D134" s="70">
+        <v>600</v>
+      </c>
+      <c r="E134" s="71">
+        <v>84660</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A135" s="67">
+        <v>2</v>
+      </c>
+      <c r="B135" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C135" s="69">
+        <v>42</v>
+      </c>
+      <c r="D135" s="70">
+        <v>300</v>
+      </c>
+      <c r="E135" s="71">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A136" s="67">
+        <v>3</v>
+      </c>
+      <c r="B136" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C136" s="69">
+        <v>12.2</v>
+      </c>
+      <c r="D136" s="70">
+        <v>300</v>
+      </c>
+      <c r="E136" s="71">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A137" s="67">
+        <v>4</v>
+      </c>
+      <c r="B137" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C137" s="69">
+        <v>47.8</v>
+      </c>
+      <c r="D137" s="70">
+        <v>400</v>
+      </c>
+      <c r="E137" s="71">
+        <v>19120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A138" s="67">
+        <v>5</v>
+      </c>
+      <c r="B138" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="C138" s="69">
+        <v>32</v>
+      </c>
+      <c r="D138" s="70">
+        <v>800</v>
+      </c>
+      <c r="E138" s="71">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="21" customHeight="1" thickBot="1">
+      <c r="A139" s="67">
+        <v>6</v>
+      </c>
+      <c r="B139" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="69"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="71">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A140" s="67">
+        <v>7</v>
+      </c>
+      <c r="B140" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="C140" s="69">
+        <v>8</v>
+      </c>
+      <c r="D140" s="70">
+        <v>200</v>
+      </c>
+      <c r="E140" s="71">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A141" s="67">
+        <v>8</v>
+      </c>
+      <c r="B141" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="C141" s="69">
+        <v>8</v>
+      </c>
+      <c r="D141" s="70">
+        <v>50</v>
+      </c>
+      <c r="E141" s="71">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A142" s="67">
+        <v>9</v>
+      </c>
+      <c r="B142" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" s="69">
+        <v>8</v>
+      </c>
+      <c r="D142" s="70">
+        <v>50</v>
+      </c>
+      <c r="E142" s="71">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="31" customHeight="1" thickBot="1">
+      <c r="A143" s="67">
+        <v>10</v>
+      </c>
+      <c r="B143" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" s="69">
+        <v>8</v>
+      </c>
+      <c r="D143" s="70">
+        <v>500</v>
+      </c>
+      <c r="E143" s="71">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A144" s="67">
+        <v>11</v>
+      </c>
+      <c r="B144" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" s="69">
+        <v>12</v>
+      </c>
+      <c r="D144" s="70">
+        <v>200</v>
+      </c>
+      <c r="E144" s="71">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A145" s="67">
+        <v>12</v>
+      </c>
+      <c r="B145" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" s="69">
+        <v>1</v>
+      </c>
+      <c r="D145" s="70">
+        <v>300</v>
+      </c>
+      <c r="E145" s="71">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A146" s="67">
+        <v>13</v>
+      </c>
+      <c r="B146" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="C146" s="69">
+        <v>1</v>
+      </c>
+      <c r="D146" s="70">
+        <v>200</v>
+      </c>
+      <c r="E146" s="71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A147" s="67">
+        <v>14</v>
+      </c>
+      <c r="B147" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C147" s="69"/>
+      <c r="D147" s="70">
+        <v>600</v>
+      </c>
+      <c r="E147" s="71">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A148" s="67">
+        <v>15</v>
+      </c>
+      <c r="B148" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C148" s="69"/>
+      <c r="D148" s="70">
+        <v>600</v>
+      </c>
+      <c r="E148" s="71">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A149" s="67">
+        <v>16</v>
+      </c>
+      <c r="B149" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="C149" s="69">
+        <v>8</v>
+      </c>
+      <c r="D149" s="70">
+        <v>50</v>
+      </c>
+      <c r="E149" s="71">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A150" s="102"/>
+      <c r="B150" s="102"/>
+      <c r="C150" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="106"/>
+      <c r="E150" s="73">
+        <f>SUM(E134:E149)</f>
+        <v>256540</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A151" s="103"/>
+      <c r="B151" s="103"/>
+      <c r="C151" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D151" s="107"/>
+      <c r="E151" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A152" s="104"/>
+      <c r="B152" s="104"/>
+      <c r="C152" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="D152" s="107"/>
+      <c r="E152" s="74">
+        <f>SUM(E150-E151)</f>
+        <v>256540</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A157" s="66">
+        <v>45747</v>
+      </c>
+      <c r="B157" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="C157" s="72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A158" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A159" s="67">
+        <v>1</v>
+      </c>
+      <c r="B159" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="C159" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="D159" s="70">
+        <v>300</v>
+      </c>
+      <c r="E159" s="71">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A160" s="67">
+        <v>2</v>
+      </c>
+      <c r="B160" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C160" s="69"/>
+      <c r="D160" s="69"/>
+      <c r="E160" s="71">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A161" s="67">
+        <v>3</v>
+      </c>
+      <c r="B161" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D161" s="70">
+        <v>200</v>
+      </c>
+      <c r="E161" s="71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A162" s="67">
+        <v>4</v>
+      </c>
+      <c r="B162" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C162" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D162" s="70">
+        <v>500</v>
+      </c>
+      <c r="E162" s="71">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A163" s="67">
+        <v>5</v>
+      </c>
+      <c r="B163" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="C163" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D163" s="70">
+        <v>200</v>
+      </c>
+      <c r="E163" s="71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A164" s="67">
+        <v>6</v>
+      </c>
+      <c r="B164" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C164" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D164" s="70">
+        <v>50</v>
+      </c>
+      <c r="E164" s="71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A165" s="67">
+        <v>7</v>
+      </c>
+      <c r="B165" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C165" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D165" s="70">
+        <v>50</v>
+      </c>
+      <c r="E165" s="71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A166" s="96"/>
+      <c r="B166" s="96"/>
+      <c r="C166" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="100"/>
+      <c r="E166" s="32">
+        <f>SUM(E159:E165)</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A167" s="97"/>
+      <c r="B167" s="97"/>
+      <c r="C167" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="D167" s="101"/>
+      <c r="E167" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A168" s="98"/>
+      <c r="B168" s="98"/>
+      <c r="C168" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="D168" s="101"/>
+      <c r="E168" s="9">
+        <f>SUM(E166-E167)</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A170" s="66">
+        <v>45747</v>
+      </c>
+      <c r="B170" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C170" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="F170">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A171" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B171" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C171" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D171" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="E171" s="80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A172" s="75">
+        <v>1</v>
+      </c>
+      <c r="B172" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="C172" s="77">
+        <v>78</v>
+      </c>
+      <c r="D172" s="78">
+        <v>800</v>
+      </c>
+      <c r="E172" s="71">
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A173" s="75">
+        <v>2</v>
+      </c>
+      <c r="B173" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="C173" s="77">
+        <v>12</v>
+      </c>
+      <c r="D173" s="77">
+        <v>600</v>
+      </c>
+      <c r="E173" s="71">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A174" s="75">
+        <v>3</v>
+      </c>
+      <c r="B174" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="C174" s="77">
+        <v>36.5</v>
+      </c>
+      <c r="D174" s="78">
+        <v>300</v>
+      </c>
+      <c r="E174" s="71">
+        <v>10950</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A175" s="75">
+        <v>4</v>
+      </c>
+      <c r="B175" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="C175" s="77">
+        <v>27.8</v>
+      </c>
+      <c r="D175" s="78">
+        <v>250</v>
+      </c>
+      <c r="E175" s="71">
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A176" s="75">
+        <v>5</v>
+      </c>
+      <c r="B176" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C176" s="77">
+        <v>1</v>
+      </c>
+      <c r="D176" s="78">
+        <v>5000</v>
+      </c>
+      <c r="E176" s="71">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A177" s="75">
+        <v>6</v>
+      </c>
+      <c r="B177" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C177" s="77">
+        <v>2</v>
+      </c>
+      <c r="D177" s="78">
+        <v>200</v>
+      </c>
+      <c r="E177" s="71">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A178" s="95"/>
+      <c r="B178" s="95"/>
+      <c r="C178" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="95"/>
+      <c r="E178" s="32">
+        <f>SUM(E172:E177)</f>
+        <v>92900</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A179" s="95"/>
+      <c r="B179" s="95"/>
+      <c r="C179" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D179" s="95"/>
+      <c r="E179" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A180" s="95"/>
+      <c r="B180" s="95"/>
+      <c r="C180" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="D180" s="95"/>
+      <c r="E180" s="32">
+        <f>SUM(E178-E179)</f>
+        <v>92900</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A182" s="66">
+        <v>45747</v>
+      </c>
+      <c r="B182" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="C182" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="F182">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A183" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B183" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C183" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D183" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="E183" s="80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A184" s="75">
+        <v>1</v>
+      </c>
+      <c r="B184" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="C184" s="77"/>
+      <c r="D184" s="78"/>
+      <c r="E184" s="77"/>
+    </row>
+    <row r="185" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A185" s="75">
+        <v>2</v>
+      </c>
+      <c r="B185" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="C185" s="77"/>
+      <c r="D185" s="77"/>
+      <c r="E185" s="77"/>
+    </row>
+    <row r="186" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A186" s="75">
+        <v>3</v>
+      </c>
+      <c r="B186" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C186" s="77"/>
+      <c r="D186" s="78"/>
+      <c r="E186" s="77"/>
+    </row>
+    <row r="187" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A187" s="75">
+        <v>4</v>
+      </c>
+      <c r="B187" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="C187" s="77"/>
+      <c r="D187" s="78"/>
+      <c r="E187" s="77"/>
+    </row>
+    <row r="188" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A188" s="75">
+        <v>5</v>
+      </c>
+      <c r="B188" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C188" s="77"/>
+      <c r="D188" s="78"/>
+      <c r="E188" s="77"/>
+    </row>
+    <row r="189" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A189" s="95"/>
+      <c r="B189" s="95"/>
+      <c r="C189" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" s="95"/>
+      <c r="E189" s="32">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A190" s="95"/>
+      <c r="B190" s="95"/>
+      <c r="C190" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D190" s="95"/>
+      <c r="E190" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A191" s="95"/>
+      <c r="B191" s="95"/>
+      <c r="C191" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="D191" s="95"/>
+      <c r="E191" s="32">
+        <f>SUM(E189-E190)</f>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A193" s="66">
+        <v>45759</v>
+      </c>
+      <c r="B193" s="110" t="s">
+        <v>197</v>
+      </c>
+      <c r="C193" s="110" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A194" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B194" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C194" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D194" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="E194" s="80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A195" s="75">
+        <v>1</v>
+      </c>
+      <c r="B195" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C195" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="D195" s="113">
+        <v>400</v>
+      </c>
+      <c r="E195" s="114">
+        <v>17680</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A196" s="75">
+        <v>2</v>
+      </c>
+      <c r="B196" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="C196" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="D196" s="113">
+        <v>800</v>
+      </c>
+      <c r="E196" s="114">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A197" s="75">
+        <v>3</v>
+      </c>
+      <c r="B197" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="C197" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D197" s="113">
+        <v>500</v>
+      </c>
+      <c r="E197" s="114">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A198" s="75">
+        <v>4</v>
+      </c>
+      <c r="B198" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C198" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D198" s="113">
+        <v>200</v>
+      </c>
+      <c r="E198" s="114">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A199" s="75">
+        <v>5</v>
+      </c>
+      <c r="B199" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="C199" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D199" s="113">
+        <v>50</v>
+      </c>
+      <c r="E199" s="114">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A200" s="75">
+        <v>6</v>
+      </c>
+      <c r="B200" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="C200" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D200" s="113">
+        <v>50</v>
+      </c>
+      <c r="E200" s="114">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A201" s="75">
+        <v>7</v>
+      </c>
+      <c r="B201" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C201" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="D201" s="113">
+        <v>200</v>
+      </c>
+      <c r="E201" s="114">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A202" s="75">
+        <v>8</v>
+      </c>
+      <c r="B202" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="C202" s="112" t="s">
+        <v>181</v>
+      </c>
+      <c r="D202" s="113">
+        <v>200</v>
+      </c>
+      <c r="E202" s="114">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A203" s="75">
+        <v>9</v>
+      </c>
+      <c r="B203" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="C203" s="112" t="s">
+        <v>181</v>
+      </c>
+      <c r="D203" s="113">
+        <v>5000</v>
+      </c>
+      <c r="E203" s="114">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A204" s="95"/>
+      <c r="B204" s="95"/>
+      <c r="C204" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D204" s="95"/>
+      <c r="E204" s="115">
+        <f>SUM(E195:E203)</f>
+        <v>40780</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A205" s="95"/>
+      <c r="B205" s="95"/>
+      <c r="C205" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D205" s="95"/>
+      <c r="E205" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A206" s="95"/>
+      <c r="B206" s="95"/>
+      <c r="C206" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="D206" s="95"/>
+      <c r="E206" s="115">
+        <f>SUM(E204-E205)</f>
+        <v>40780</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="82">
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="A204:A206"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="C204:D204"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -5659,37 +6620,32 @@
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A118:A120"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="B69:B71"/>
@@ -5701,9 +6657,33 @@
     <mergeCell ref="B127:B129"/>
     <mergeCell ref="E66:E68"/>
     <mergeCell ref="E75:E82"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="B178:B180"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C191:D191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>